--- a/outputs/ML_Results/mode_MNLR/Paris.xlsx
+++ b/outputs/ML_Results/mode_MNLR/Paris.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="summ0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ15" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ6" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ5" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ11" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ9" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ15" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ6" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ5" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ11" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ9" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -433,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +486,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-22.74225351907035</v>
+        <v>-17.63930137641855</v>
       </c>
       <c r="C2" t="n">
-        <v>2.582601455840813</v>
+        <v>2.566950606043302</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.546210441954705</v>
+        <v>-1.534035114528678</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9974470667640821</v>
+        <v>0.974398710760878</v>
       </c>
       <c r="F2" t="n">
-        <v>0.004986178918626308</v>
+        <v>0.005236952882920185</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06419148558080567</v>
+        <v>0.06617870316749382</v>
       </c>
     </row>
     <row r="3">
@@ -510,22 +511,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.09480063191927832</v>
+        <v>-0.09543502145744062</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.04396889463938392</v>
+        <v>-0.04462359456616711</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.0844739554895924</v>
+        <v>-0.08469502553103846</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5783251874372632</v>
+        <v>0.5758527533528905</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6077812249336541</v>
+        <v>0.6023541216818582</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2852866977660813</v>
+        <v>0.2839547905448173</v>
       </c>
     </row>
     <row r="4">
@@ -535,22 +536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.6047537969073117</v>
+        <v>-0.6040185933583971</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.6432962445187193</v>
+        <v>-0.6445030764554126</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.9191931808672281</v>
+        <v>-0.9214576110068877</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01533521379275144</v>
+        <v>0.01545773334731561</v>
       </c>
       <c r="F4" t="n">
-        <v>3.420239952301741e-07</v>
+        <v>3.254928354758854e-07</v>
       </c>
       <c r="G4" t="n">
-        <v>4.762685709180374e-13</v>
+        <v>4.21491930094799e-13</v>
       </c>
     </row>
     <row r="5">
@@ -560,22 +561,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.3619544483213518</v>
+        <v>-0.3597051400440688</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08677769030560399</v>
+        <v>0.08705489577078024</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.290988085587667</v>
+        <v>-0.2899655691575884</v>
       </c>
       <c r="E5" t="n">
-        <v>0.09771185504350942</v>
+        <v>0.09980128688061575</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3725243180347279</v>
+        <v>0.3711242468937176</v>
       </c>
       <c r="G5" t="n">
-        <v>0.001575522731702507</v>
+        <v>0.001637618362552265</v>
       </c>
     </row>
     <row r="6">
@@ -585,22 +586,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.2015828136688947</v>
+        <v>-0.2011519811157223</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.3309177519459106</v>
+        <v>-0.3293529095553204</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.388652887548281</v>
+        <v>-0.3823061890171327</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4427301682766884</v>
+        <v>0.4434001401510894</v>
       </c>
       <c r="F6" t="n">
-        <v>0.05101941074371185</v>
+        <v>0.05214736223622705</v>
       </c>
       <c r="G6" t="n">
-        <v>5.489683234173868e-05</v>
+        <v>7.089720052683693e-05</v>
       </c>
     </row>
     <row r="7">
@@ -610,22 +611,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.2044087874195829</v>
+        <v>-0.2034595536814165</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02471970440372481</v>
+        <v>0.02313844836505961</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.480506698348149</v>
+        <v>-0.4824028279679248</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2865795604265388</v>
+        <v>0.2886290757692255</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7733343876537951</v>
+        <v>0.787389565505854</v>
       </c>
       <c r="G7" t="n">
-        <v>6.823565972695248e-07</v>
+        <v>6.127321798237254e-07</v>
       </c>
     </row>
     <row r="8">
@@ -635,22 +636,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.358307729464951</v>
+        <v>1.358597937009236</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9893787397972742</v>
+        <v>0.9910179050307248</v>
       </c>
       <c r="D8" t="n">
-        <v>1.493391160524596</v>
+        <v>1.495728270175007</v>
       </c>
       <c r="E8" t="n">
-        <v>4.341720861272095e-09</v>
+        <v>4.299435429993523e-09</v>
       </c>
       <c r="F8" t="n">
-        <v>1.695542296456049e-29</v>
+        <v>1.328964791588667e-29</v>
       </c>
       <c r="G8" t="n">
-        <v>1.192363536797673e-36</v>
+        <v>9.146603455349078e-37</v>
       </c>
     </row>
     <row r="9">
@@ -660,22 +661,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.252796036518552</v>
+        <v>1.251370686711407</v>
       </c>
       <c r="C9" t="n">
-        <v>1.837321186714693</v>
+        <v>1.839426410293758</v>
       </c>
       <c r="D9" t="n">
-        <v>2.483309298790686</v>
+        <v>2.487802378117599</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0003589770624878654</v>
+        <v>0.000361484736241383</v>
       </c>
       <c r="F9" t="n">
-        <v>1.249641682245452e-39</v>
+        <v>1.017484580511003e-39</v>
       </c>
       <c r="G9" t="n">
-        <v>2.543461839146823e-50</v>
+        <v>1.759643857533683e-50</v>
       </c>
     </row>
     <row r="10">
@@ -685,22 +686,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.307635912309405</v>
+        <v>1.30805879063031</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6924331686645265</v>
+        <v>0.6949914177058448</v>
       </c>
       <c r="D10" t="n">
-        <v>1.112004350135132</v>
+        <v>1.114964695106679</v>
       </c>
       <c r="E10" t="n">
-        <v>3.470655655171453e-07</v>
+        <v>3.43355431091133e-07</v>
       </c>
       <c r="F10" t="n">
-        <v>4.007971830671482e-12</v>
+        <v>3.252472857926801e-12</v>
       </c>
       <c r="G10" t="n">
-        <v>2.90692178093229e-16</v>
+        <v>2.403667059766568e-16</v>
       </c>
     </row>
     <row r="11">
@@ -710,22 +711,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.272990484393968</v>
+        <v>2.272875482916172</v>
       </c>
       <c r="C11" t="n">
-        <v>1.276672563564196</v>
+        <v>1.277717886449276</v>
       </c>
       <c r="D11" t="n">
-        <v>2.049546438824953</v>
+        <v>2.049721747212415</v>
       </c>
       <c r="E11" t="n">
-        <v>2.540431614428328e-22</v>
+        <v>2.55568324760851e-22</v>
       </c>
       <c r="F11" t="n">
-        <v>3.788581422892585e-31</v>
+        <v>3.228061447114342e-31</v>
       </c>
       <c r="G11" t="n">
-        <v>1.088622098507341e-63</v>
+        <v>1.018600915337587e-63</v>
       </c>
     </row>
     <row r="12">
@@ -735,22 +736,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-24.41225256462206</v>
+        <v>-24.16949219658541</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.4090030914565367</v>
+        <v>-0.4004137994515315</v>
       </c>
       <c r="D12" t="n">
-        <v>1.31600996739237</v>
+        <v>1.322749279937965</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9999281844549645</v>
+        <v>0.9999199599956949</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4128792633320532</v>
+        <v>0.4223125534623025</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0006445618262219922</v>
+        <v>0.0005777505228282005</v>
       </c>
     </row>
     <row r="13">
@@ -760,22 +761,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.05044411240850779</v>
+        <v>0.04753617978233487</v>
       </c>
       <c r="C13" t="n">
-        <v>0.202316664861591</v>
+        <v>0.1979284162821897</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4129513690088044</v>
+        <v>0.4099972989048961</v>
       </c>
       <c r="E13" t="n">
-        <v>0.830620672555927</v>
+        <v>0.8402376440914746</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08396408351416811</v>
+        <v>0.09081096978175519</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0002140871052799428</v>
+        <v>0.0002366079388068741</v>
       </c>
     </row>
     <row r="14">
@@ -785,22 +786,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.152724968189276</v>
+        <v>1.150743830582676</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8854030518482385</v>
+        <v>0.8863666557952173</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7303076984896352</v>
+        <v>0.727124352691546</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0004179863123466242</v>
+        <v>0.0004276491270320495</v>
       </c>
       <c r="F14" t="n">
-        <v>1.18657445577511e-08</v>
+        <v>1.116221485906455e-08</v>
       </c>
       <c r="G14" t="n">
-        <v>1.983474317517792e-05</v>
+        <v>2.135610694513056e-05</v>
       </c>
     </row>
     <row r="15">
@@ -810,22 +811,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-17.8515762571704</v>
+        <v>-2.158393134802741</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2049475521161536</v>
+        <v>0.2283610939600919</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2098337599964379</v>
+        <v>0.2343433348816408</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9990727933461582</v>
+        <v>0.7213751910082846</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7398825276542205</v>
+        <v>0.7112565006437626</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7240547681887907</v>
+        <v>0.693247869803439</v>
       </c>
     </row>
     <row r="16">
@@ -835,22 +836,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.410069445136109</v>
+        <v>0.4084639233985728</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6251365604259728</v>
+        <v>0.6229555361754715</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8750889026059357</v>
+        <v>0.874540228613325</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1004850618020222</v>
+        <v>0.1016736883097393</v>
       </c>
       <c r="F16" t="n">
-        <v>2.075684368703154e-07</v>
+        <v>2.263689898407763e-07</v>
       </c>
       <c r="G16" t="n">
-        <v>1.000018835300024e-14</v>
+        <v>1.040011157333254e-14</v>
       </c>
     </row>
     <row r="17">
@@ -860,22 +861,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.684486538073837</v>
+        <v>1.682107879491521</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4814397091356122</v>
+        <v>0.4304453084234962</v>
       </c>
       <c r="D17" t="n">
-        <v>1.313277062892645</v>
+        <v>1.242129127880476</v>
       </c>
       <c r="E17" t="n">
-        <v>6.082773971264345e-07</v>
+        <v>1.397475876815067e-07</v>
       </c>
       <c r="F17" t="n">
-        <v>0.03291161688943873</v>
+        <v>0.05178702084923104</v>
       </c>
       <c r="G17" t="n">
-        <v>2.268288445138229e-14</v>
+        <v>1.39102412096091e-13</v>
       </c>
     </row>
     <row r="18">
@@ -885,22 +886,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9652594040473464</v>
+        <v>0.9745894305590909</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7095397155566866</v>
+        <v>0.7357756853214585</v>
       </c>
       <c r="D18" t="n">
-        <v>1.472724560547516</v>
+        <v>1.507542410411273</v>
       </c>
       <c r="E18" t="n">
-        <v>0.02082621245544028</v>
+        <v>0.01862092603261202</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0002316671763721106</v>
+        <v>0.0001201306317866089</v>
       </c>
       <c r="G18" t="n">
-        <v>4.366579397951974e-16</v>
+        <v>5.871410095109943e-17</v>
       </c>
     </row>
     <row r="19">
@@ -910,22 +911,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.4912297038661317</v>
+        <v>0.5042988169300096</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4246682172585556</v>
+        <v>0.4667487540656348</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9598498688123327</v>
+        <v>1.013420318476749</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6487778730788247</v>
+        <v>0.6393686653287523</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4129716538078395</v>
+        <v>0.3674727658599948</v>
       </c>
       <c r="G19" t="n">
-        <v>0.00466432323003254</v>
+        <v>0.002730315429241127</v>
       </c>
     </row>
     <row r="20">
@@ -935,22 +936,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.4459918163426139</v>
+        <v>0.4482954474668924</v>
       </c>
       <c r="C20" t="n">
-        <v>0.506729949625628</v>
+        <v>0.5090084166616753</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6897567802473632</v>
+        <v>0.6923405101780331</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1244354446632191</v>
+        <v>0.1224373788336452</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0002079800712281439</v>
+        <v>0.0001940411826500827</v>
       </c>
       <c r="G20" t="n">
-        <v>3.559865744569623e-07</v>
+        <v>3.176555655546448e-07</v>
       </c>
     </row>
     <row r="21">
@@ -960,22 +961,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>18.03350903793649</v>
+        <v>12.91435482560835</v>
       </c>
       <c r="C21" t="n">
-        <v>1.388927227361828</v>
+        <v>1.374911964873154</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3605457284327032</v>
+        <v>0.3357578873154982</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9979756458731662</v>
+        <v>0.9812548308259182</v>
       </c>
       <c r="F21" t="n">
-        <v>0.05955269371947773</v>
+        <v>0.06203163475377544</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5704317795357656</v>
+        <v>0.5968885584640784</v>
       </c>
     </row>
     <row r="22">
@@ -985,22 +986,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>16.51389024779907</v>
+        <v>11.39156359698763</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.3571577419019362</v>
+        <v>-0.3780742691812576</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.997889780815818</v>
+        <v>-2.030801233919269</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9981462305769954</v>
+        <v>0.9834648242618467</v>
       </c>
       <c r="F22" t="n">
-        <v>0.6307501367899387</v>
+        <v>0.6106581595623094</v>
       </c>
       <c r="G22" t="n">
-        <v>0.001958459535165391</v>
+        <v>0.001628390982085743</v>
       </c>
     </row>
     <row r="23">
@@ -1010,447 +1011,422 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>18.09434774411758</v>
+        <v>12.96381322987435</v>
       </c>
       <c r="C23" t="n">
-        <v>1.179842203998083</v>
+        <v>1.134296422076784</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3510290894976037</v>
+        <v>0.290841004666903</v>
       </c>
       <c r="E23" t="n">
-        <v>0.997968816428684</v>
+        <v>0.9811830527122194</v>
       </c>
       <c r="F23" t="n">
-        <v>0.105324671206924</v>
+        <v>0.1189282263831744</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5751708842363774</v>
+        <v>0.6417691181883157</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>18.0623870660932</v>
+        <v>13.59103202525016</v>
       </c>
       <c r="C24" t="n">
-        <v>1.042885048330474</v>
+        <v>1.010390575421361</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1719201736797622</v>
+        <v>0.3089405736840108</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9979724041717721</v>
+        <v>0.9802728267535109</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1537292791219499</v>
+        <v>0.1642571983235656</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7844755244346708</v>
+        <v>0.6207285365920451</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown]</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>18.70929224835407</v>
+        <v>-0.8486187297196958</v>
       </c>
       <c r="C25" t="n">
-        <v>1.010295585632644</v>
+        <v>1.578449222883179</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3079074829372858</v>
+        <v>1.712194691977132</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9978997859025514</v>
+        <v>0.9994277303128052</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1644407786711557</v>
+        <v>0.05463017206443497</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6221327824775016</v>
+        <v>0.01635050686950403</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Education[T.Unknown]</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-6.776714330636137</v>
+        <v>-0.2079846703181872</v>
       </c>
       <c r="C26" t="n">
-        <v>1.584712821703036</v>
+        <v>0.2683678918386254</v>
       </c>
       <c r="D26" t="n">
-        <v>1.720020438083678</v>
+        <v>0.5645389867028447</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9999795363431411</v>
+        <v>0.07024876536644546</v>
       </c>
       <c r="F26" t="n">
-        <v>0.05375933406821747</v>
+        <v>1.945727484498496e-06</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01592843043527242</v>
+        <v>1.51897667465479e-28</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.2079010943531625</v>
+        <v>-0.008357826960903798</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2687408737973258</v>
+        <v>-0.004887269157970255</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5656376265092281</v>
+        <v>-0.007621621279761825</v>
       </c>
       <c r="E27" t="n">
-        <v>0.07040235137171061</v>
+        <v>0.1426639373003533</v>
       </c>
       <c r="F27" t="n">
-        <v>1.885200781424189e-06</v>
+        <v>0.1253018920112926</v>
       </c>
       <c r="G27" t="n">
-        <v>1.238557407876187e-28</v>
+        <v>0.002992404078035381</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Trip_Distance</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.008530566197260489</v>
+        <v>-0.000451266718717694</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.005178068689702731</v>
+        <v>-0.002984706901829547</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.007896442190580097</v>
+        <v>0.0001345414047706355</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1350116516118878</v>
+        <v>3.531527413907792e-34</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1053922693220694</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.002140949016213495</v>
+        <v>1.37886970207991e-114</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Trip_Distance</t>
+          <t>CarAvailable</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.0004512375530753118</v>
+        <v>-2.37800765897379</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.002984525238794088</v>
+        <v>-2.59251743625733</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0001348305974954069</v>
+        <v>-2.936548419369498</v>
       </c>
       <c r="E29" t="n">
-        <v>3.661900113736658e-34</v>
+        <v>7.235140139022599e-63</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1.540443742713579e-158</v>
       </c>
       <c r="G29" t="n">
-        <v>7.100725547324207e-115</v>
+        <v>4.175243077662491e-255</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CarAvailable</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-2.375041879074452</v>
+        <v>0.2145378828571355</v>
       </c>
       <c r="C30" t="n">
-        <v>-2.588152197580589</v>
+        <v>0.1043504845868074</v>
       </c>
       <c r="D30" t="n">
-        <v>-2.931718542641927</v>
+        <v>0.09217843766108247</v>
       </c>
       <c r="E30" t="n">
-        <v>1.156046950928773e-62</v>
+        <v>6.605979593992339e-07</v>
       </c>
       <c r="F30" t="n">
-        <v>6.753605427346982e-158</v>
+        <v>6.46009068588821e-06</v>
       </c>
       <c r="G30" t="n">
-        <v>5.320522891067128e-254</v>
+        <v>2.084538437435259e-06</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>UrbPopDensity_origin</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.2139224030309192</v>
+        <v>7.297687846701756e-06</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1021705180910463</v>
+        <v>1.659251644124602e-05</v>
       </c>
       <c r="D31" t="n">
-        <v>0.08959197702635728</v>
+        <v>1.094822000965645e-05</v>
       </c>
       <c r="E31" t="n">
-        <v>7.631548816303226e-07</v>
+        <v>0.2409673094845602</v>
       </c>
       <c r="F31" t="n">
-        <v>1.061640495769557e-05</v>
+        <v>8.309444891603949e-05</v>
       </c>
       <c r="G31" t="n">
-        <v>4.201728735022792e-06</v>
+        <v>0.002382860118006778</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>UrbPopDensity_origin</t>
+          <t>DistSubcenter_origin</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>7.3540927043557e-06</v>
+        <v>0.02076088703339772</v>
       </c>
       <c r="C32" t="n">
-        <v>1.668688522639614e-05</v>
+        <v>-0.01231798541221682</v>
       </c>
       <c r="D32" t="n">
-        <v>1.107048680742323e-05</v>
+        <v>0.0214896181094722</v>
       </c>
       <c r="E32" t="n">
-        <v>0.237403777408423</v>
+        <v>0.5694138730163976</v>
       </c>
       <c r="F32" t="n">
-        <v>7.56965085478931e-05</v>
+        <v>0.3992515870680972</v>
       </c>
       <c r="G32" t="n">
-        <v>0.00213837660952771</v>
+        <v>0.1253986212031236</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>DistSubcenter_origin</t>
+          <t>DistCenter_origin</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.02061958003958702</v>
+        <v>-0.05075611110297084</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.01227364478537651</v>
+        <v>-0.07301883892884101</v>
       </c>
       <c r="D33" t="n">
-        <v>0.02186309682127939</v>
+        <v>-0.09182965013971818</v>
       </c>
       <c r="E33" t="n">
-        <v>0.5721113940778499</v>
+        <v>0.07785735280852454</v>
       </c>
       <c r="F33" t="n">
-        <v>0.4010428212677061</v>
+        <v>1.805881739032651e-09</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1190544159179275</v>
+        <v>5.160363178433163e-15</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>DistCenter_origin</t>
+          <t>UrbBuildDensity_origin</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.05102879098633972</v>
+        <v>3.013462024293517e-08</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.07353366947793649</v>
+        <v>3.603518568991849e-08</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.09224891733403418</v>
+        <v>2.33246255729169e-08</v>
       </c>
       <c r="E34" t="n">
-        <v>0.07630992159297008</v>
+        <v>0.07349335423480084</v>
       </c>
       <c r="F34" t="n">
-        <v>1.433646622717824e-09</v>
+        <v>0.0003265530929415176</v>
       </c>
       <c r="G34" t="n">
-        <v>4.05530828158618e-15</v>
+        <v>0.007124774850263956</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_origin</t>
+          <t>IntersecDensity_origin</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3.00386387114321e-08</v>
+        <v>0.0180945566954829</v>
       </c>
       <c r="C35" t="n">
-        <v>3.589582918292018e-08</v>
+        <v>0.009274143001538391</v>
       </c>
       <c r="D35" t="n">
-        <v>2.331952325264858e-08</v>
+        <v>0.009661816971077599</v>
       </c>
       <c r="E35" t="n">
-        <v>0.07445542417023868</v>
+        <v>0.01070121071158437</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0003454645316956958</v>
+        <v>0.001153840047131619</v>
       </c>
       <c r="G35" t="n">
-        <v>0.007167742803196047</v>
+        <v>0.0003636502914907159</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>IntersecDensity_origin</t>
+          <t>street_length_origin</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.01805471807224384</v>
+        <v>0.01927481489537689</v>
       </c>
       <c r="C36" t="n">
-        <v>0.009290035705739576</v>
+        <v>0.006114089212874135</v>
       </c>
       <c r="D36" t="n">
-        <v>0.009815388564658691</v>
+        <v>0.003457164806530545</v>
       </c>
       <c r="E36" t="n">
-        <v>0.01092393729741549</v>
+        <v>0.05751552467648913</v>
       </c>
       <c r="F36" t="n">
-        <v>0.00113033054611591</v>
+        <v>0.08733593139180761</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0002952152833067792</v>
+        <v>0.3188260685377597</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>street_length_origin</t>
+          <t>bike_lane_share_origin</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.01926415356255773</v>
+        <v>3.24718819397596</v>
       </c>
       <c r="C37" t="n">
-        <v>0.006211257248103719</v>
+        <v>-0.07752120256328787</v>
       </c>
       <c r="D37" t="n">
-        <v>0.003700725085587576</v>
+        <v>0.1450008759746342</v>
       </c>
       <c r="E37" t="n">
-        <v>0.05780823196985862</v>
+        <v>2.063578032764381e-07</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08240168568783267</v>
+        <v>0.8225679612297973</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2862109363700572</v>
+        <v>0.6336051062635346</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>bike_lane_share_origin</t>
+          <t>LU_UrbFab_origin</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3.239246301361683</v>
+        <v>-0.5371120539477185</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.08796810054697031</v>
+        <v>-0.5291566795564998</v>
       </c>
       <c r="D38" t="n">
-        <v>0.1308957535322375</v>
+        <v>-0.639409932696629</v>
       </c>
       <c r="E38" t="n">
-        <v>2.219485747948313e-07</v>
+        <v>0.3520281243796901</v>
       </c>
       <c r="F38" t="n">
-        <v>0.7991834822845083</v>
+        <v>0.06959104632713796</v>
       </c>
       <c r="G38" t="n">
-        <v>0.6671784795318818</v>
+        <v>0.014604467166256</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>LU_UrbFab_origin</t>
+          <t>LU_Comm_origin</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-0.5366560246581593</v>
+        <v>0.2814948932948559</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.5356854144845103</v>
+        <v>-1.5697099020066</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.6481293489500375</v>
+        <v>-0.5049014844926364</v>
       </c>
       <c r="E39" t="n">
-        <v>0.3524780428992692</v>
+        <v>0.7192168826432415</v>
       </c>
       <c r="F39" t="n">
-        <v>0.06626071903551418</v>
+        <v>4.804877747313589e-06</v>
       </c>
       <c r="G39" t="n">
-        <v>0.01334039441156809</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>LU_Comm_origin</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>0.2719561218108494</v>
-      </c>
-      <c r="C40" t="n">
-        <v>-1.593113905074058</v>
-      </c>
-      <c r="D40" t="n">
-        <v>-0.528785768529602</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.7285190134007655</v>
-      </c>
-      <c r="F40" t="n">
-        <v>3.556095033063354e-06</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.1016072382653199</v>
+        <v>0.1175794830563491</v>
       </c>
     </row>
   </sheetData>
@@ -1464,7 +1440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1515,12 +1491,24 @@
           <t>Intercept</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>-18.50502388967102</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.612876770236362</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-1.805677647136714</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9646440971480401</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.002920852727885274</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.02689484205051953</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1528,12 +1516,24 @@
           <t>Trip_Time[T.Daytime Off-Peak]</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>-0.01363943359689502</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.002287290099696106</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-0.0733939832395894</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.9358525020273835</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.9788202916255363</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.3539759203570801</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1541,12 +1541,24 @@
           <t>Trip_Time[T.Evening]</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>-0.5710254470802808</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-0.6424407609522316</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-0.8096127598167702</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.02230066482245196</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.859398047842494e-07</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.253167658439115e-10</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1554,12 +1566,24 @@
           <t>Trip_Time[T.Lunch]</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="B5" t="n">
+        <v>-0.3600661057358145</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.1303359596332468</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.2769720914822738</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.1013856994415325</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.1829358759738783</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.002509734190450579</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1567,12 +1591,24 @@
           <t>Trip_Time[T.Nighttime Off-Peak]</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>0.02527074178328383</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.2498284216131368</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.3889868707653297</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.9163800056836049</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.137515892241703</v>
+      </c>
+      <c r="G6" t="n">
+        <v>4.33618250401294e-05</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1580,12 +1616,24 @@
           <t>Trip_Time[T.PM Rush]</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+      <c r="B7" t="n">
+        <v>-0.05571285082470451</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.03662680214564006</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.5041343908215015</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.7657992097445721</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.6693516901352565</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2.329389020254172e-07</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1593,12 +1641,24 @@
           <t>Trip_Purpose_Agg[T.Home↔Leisure]</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+      <c r="B8" t="n">
+        <v>1.364993480094495</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9742702462314947</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.521711295663571</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3.695315315853707e-09</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2.068364082917929e-28</v>
+      </c>
+      <c r="G8" t="n">
+        <v>5.931852524128016e-37</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1606,12 +1666,24 @@
           <t>Trip_Purpose_Agg[T.Home↔School]</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
+      <c r="B9" t="n">
+        <v>1.449082382843708</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.933706721847668</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.633912641361282</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.961141848839619e-05</v>
+      </c>
+      <c r="F9" t="n">
+        <v>7.603010568566813e-45</v>
+      </c>
+      <c r="G9" t="n">
+        <v>6.539756113147119e-56</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1619,12 +1691,24 @@
           <t>Trip_Purpose_Agg[T.Home↔Shopping]</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+      <c r="B10" t="n">
+        <v>1.17480526861822</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6834882052059501</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.211651790101232</v>
+      </c>
+      <c r="E10" t="n">
+        <v>6.336724200411085e-06</v>
+      </c>
+      <c r="F10" t="n">
+        <v>9.633773623128657e-12</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.232355792637362e-18</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1632,12 +1716,24 @@
           <t>Trip_Purpose_Agg[T.Home↔Work]</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
+      <c r="B11" t="n">
+        <v>2.289591047865601</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.188021683304479</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2.06779786663903</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2.099680108354655e-22</v>
+      </c>
+      <c r="F11" t="n">
+        <v>6.312851985609591e-27</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.23729659639754e-63</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1645,12 +1741,24 @@
           <t>Trip_Purpose_Agg[T.Other]</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
+      <c r="B12" t="n">
+        <v>-26.46126040382718</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-0.2927807601183508</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.40912757162237</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.9999710288394138</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.5117458580872134</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.0003920818711241669</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1658,12 +1766,24 @@
           <t>Occupation[T.Employed_PartTime]</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
+      <c r="B13" t="n">
+        <v>0.2368621730344556</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.06916340414348472</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.3389774773767374</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.2757507116030756</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.5496548037993383</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.001925921673820858</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1671,12 +1791,24 @@
           <t>Occupation[T.Home_Partner]</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
+      <c r="B14" t="n">
+        <v>1.058452144108249</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7523905553399928</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.52025750541886</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.001138963022167525</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5.03178746926624e-07</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.002626609841973073</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1684,12 +1816,24 @@
           <t>Occupation[T.Other]</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
+      <c r="B15" t="n">
+        <v>-7.571231814112748</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-0.1680251212807009</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-0.1166719802832393</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8905429950034297</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.7672472896072881</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.8410918558625254</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1697,12 +1841,24 @@
           <t>Occupation[T.Retired]</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
+      <c r="B16" t="n">
+        <v>0.3288370227964845</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.5233167080330158</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7635286871196876</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.1811520579110354</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.50920391177571e-05</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.114443963907111e-11</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1710,12 +1866,24 @@
           <t>Occupation[T.Student_3rdLevel]</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
+      <c r="B17" t="n">
+        <v>1.73005292846005</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3254706239125315</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.07472878948849</v>
+      </c>
+      <c r="E17" t="n">
+        <v>3.177325631446093e-08</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.1390914515761445</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1.838065705470077e-10</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1723,12 +1891,24 @@
           <t>Occupation[T.Student_School]</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+      <c r="B18" t="n">
+        <v>0.7903585335321571</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.5754803947919027</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.36303174389944</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.0516336291703904</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.002553460686045153</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2.065763517228843e-14</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1736,12 +1916,24 @@
           <t>Occupation[T.Trainee]</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
+      <c r="B19" t="n">
+        <v>1.199013040259124</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.5141230207626927</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.718480920372518</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.1391544482357607</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.3522317587533003</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.03714145612017358</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1749,12 +1941,24 @@
           <t>Occupation[T.Unemployed]</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
+      <c r="B20" t="n">
+        <v>0.2023883242772727</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.6113304832309168</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.6854276598331419</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.5267225636398725</v>
+      </c>
+      <c r="F20" t="n">
+        <v>9.823750160611334e-06</v>
+      </c>
+      <c r="G20" t="n">
+        <v>5.747588291281077e-07</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1762,12 +1966,24 @@
           <t>Education[T.Elementary]</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
+      <c r="B21" t="n">
+        <v>12.83342322633357</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.474936663779</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.8106658207201787</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.9754760088233303</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.03114611987437981</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.181387519968334</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1775,12 +1991,24 @@
           <t>Education[T.No diploma yet]</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
+      <c r="B22" t="n">
+        <v>11.43803961550565</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.1829723815780904</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-1.408173206792618</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.9781418088619349</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.7909901239731085</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.0223116191716119</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1788,233 +2016,424 @@
           <t>Education[T.Secondary]</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
+      <c r="B23" t="n">
+        <v>12.69066153463771</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.228070623565002</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.8077105699452169</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.9757487291947649</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.068502605815413</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.1756912094180353</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
+          <t>Education[T.University]</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>13.32380836416953</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.100339712022278</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.8038705782457405</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.9745392148874394</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.1022384300287571</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.1772983754520391</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
+          <t>Education[T.Unknown]</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>13.63298013614425</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.759833587831256</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2.046170546071541</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.9739486640995075</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.02451221982454494</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.003209018395748145</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Education[T.Unknown]</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
+          <t>Sex</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>-0.2194323577290106</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.2675244522412809</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.5432726411508628</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.0521490520734599</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2.114044792986079e-06</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1.055063558724631e-26</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sex</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.006305926262904217</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.003941356342387013</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-0.006011592420650655</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.2611620490532476</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.2216065588498053</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.01864601386541342</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
+          <t>Trip_Distance</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>-0.0004372448150458821</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.002948923609684061</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.0001337850426904555</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2.726408750492173e-34</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>8.678823886680657e-114</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Trip_Distance</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
+          <t>CarAvailable</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-2.317052791329276</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-2.560410712162849</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-2.889407458958674</v>
+      </c>
+      <c r="E29" t="n">
+        <v>3.306183466674015e-61</v>
+      </c>
+      <c r="F29" t="n">
+        <v>9.832773904495411e-158</v>
+      </c>
+      <c r="G29" t="n">
+        <v>7.463882484738132e-251</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CarAvailable</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
+          <t>HHSize</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.1531862207780366</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.08554671618061147</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.08185090273398558</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.0003746260858341899</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.0002164070379356755</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2.495794864150904e-05</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>HHSize</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
+          <t>UrbPopDensity_origin</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>5.15565202136026e-06</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.820175865421644e-05</v>
+      </c>
+      <c r="D31" t="n">
+        <v>9.876505272465513e-06</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.4057574251189997</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1.475668777242335e-05</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.005993088698972476</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>UrbPopDensity_origin</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
+          <t>DistSubcenter_origin</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.06879129315020346</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-0.01177417982343823</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.01433675792509437</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.04808680342992497</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.4202613226513773</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.306675260943111</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>DistSubcenter_origin</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
+          <t>DistCenter_origin</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-0.02615145504211092</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-0.08152541532993365</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-0.09741671637953123</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.3342143248885816</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1.807714111368243e-11</v>
+      </c>
+      <c r="G33" t="n">
+        <v>9.627514864646665e-17</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>DistCenter_origin</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
+          <t>UrbBuildDensity_origin</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>4.412219684288233e-08</v>
+      </c>
+      <c r="C34" t="n">
+        <v>3.933212189417185e-08</v>
+      </c>
+      <c r="D34" t="n">
+        <v>3.25805282792646e-08</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.006867574736306203</v>
+      </c>
+      <c r="F34" t="n">
+        <v>6.990465997102859e-05</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.0001492598029310984</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_origin</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
+          <t>IntersecDensity_origin</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.02371918795159763</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.008139453134525319</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.008931178965334387</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.0005580034389320575</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.004359601340898809</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.0009118069437625647</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>IntersecDensity_origin</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
+          <t>street_length_origin</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.02439465708316628</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.006428868617935836</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.002574255865637557</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.01215947107554771</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.0713935616471239</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.4588287013464541</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>street_length_origin</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
+          <t>bike_lane_share_origin</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>3.153657188704036</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-0.5791816261695457</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-0.2750894544014627</v>
+      </c>
+      <c r="E37" t="n">
+        <v>3.817343124098664e-07</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.0980702614958967</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.3694246458044849</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>bike_lane_share_origin</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
+          <t>LU_UrbFab_origin</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>-0.8678996129313089</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-0.5160823184927701</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-0.7373137927267315</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.1375374637489233</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.07538731288666953</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.004874051305055143</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>LU_UrbFab_origin</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
           <t>LU_Comm_origin</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
+      <c r="B39" t="n">
+        <v>0.2424023387715078</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-1.704098796745926</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-0.5671392332347309</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.7536900711694851</v>
+      </c>
+      <c r="F39" t="n">
+        <v>7.194642332162479e-07</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.07830351668317798</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2027,7 +2446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2079,22 +2498,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-33.29443752977871</v>
+        <v>-23.57341060450537</v>
       </c>
       <c r="C2" t="n">
-        <v>2.648029760555807</v>
+        <v>1.817576150385464</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.164891095394289</v>
+        <v>-1.641018544882373</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999583141181565</v>
+        <v>0.9961042714903973</v>
       </c>
       <c r="F2" t="n">
-        <v>0.008012806422647085</v>
+        <v>0.04722594229207448</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1674625406066783</v>
+        <v>0.0402180205605559</v>
       </c>
     </row>
     <row r="3">
@@ -2104,22 +2523,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.009296186764980407</v>
+        <v>-0.02369752262256117</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.0006986109918268732</v>
+        <v>-0.01110889651339068</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.0519976776606438</v>
+        <v>-0.09240192321006925</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9569288900349284</v>
+        <v>0.8899044819311557</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9934794911018484</v>
+        <v>0.8966321258930062</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5115137945286017</v>
+        <v>0.2439232330642245</v>
       </c>
     </row>
     <row r="4">
@@ -2129,22 +2548,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.5233152353259781</v>
+        <v>-0.5285722128626891</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.5861270760323519</v>
+        <v>-0.6690792374825009</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.888901093724961</v>
+        <v>-1.002737464607486</v>
       </c>
       <c r="E4" t="n">
-        <v>0.04052797703568593</v>
+        <v>0.0316614838298039</v>
       </c>
       <c r="F4" t="n">
-        <v>2.021974961601811e-06</v>
+        <v>7.154347411479694e-08</v>
       </c>
       <c r="G4" t="n">
-        <v>1.698348666986979e-12</v>
+        <v>3.806885892725823e-15</v>
       </c>
     </row>
     <row r="5">
@@ -2154,22 +2573,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.3172894885266684</v>
+        <v>-0.2585216567432482</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1034078465813389</v>
+        <v>0.1307428182381314</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.3071792484270032</v>
+        <v>-0.3040268565855363</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1464089881835324</v>
+        <v>0.2230309357982552</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2898748910375526</v>
+        <v>0.1806814311464252</v>
       </c>
       <c r="G5" t="n">
-        <v>0.000905221441973321</v>
+        <v>0.0009885086658759461</v>
       </c>
     </row>
     <row r="6">
@@ -2179,22 +2598,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.1796917260681182</v>
+        <v>0.004541609732216779</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.2454109710757691</v>
+        <v>-0.3070477992124685</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.4396882335544632</v>
+        <v>-0.4545497658655107</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5012180231207508</v>
+        <v>0.9851602317972219</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1436190407237097</v>
+        <v>0.06740509804443684</v>
       </c>
       <c r="G6" t="n">
-        <v>4.653919589281029e-06</v>
+        <v>2.256178693303547e-06</v>
       </c>
     </row>
     <row r="7">
@@ -2204,22 +2623,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.03407205442005253</v>
+        <v>-0.02574557987148536</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05290849028672151</v>
+        <v>0.08760582590271074</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.4846594010424646</v>
+        <v>-0.5133336161108307</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8594715165868475</v>
+        <v>0.8897276123877682</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5340328517856694</v>
+        <v>0.3055054310196837</v>
       </c>
       <c r="G7" t="n">
-        <v>5.30813146910173e-07</v>
+        <v>1.346234767848835e-07</v>
       </c>
     </row>
     <row r="8">
@@ -2229,22 +2648,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.542185013723216</v>
+        <v>1.211158303165522</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9897945787648712</v>
+        <v>0.9890730291839972</v>
       </c>
       <c r="D8" t="n">
-        <v>1.565643296367506</v>
+        <v>1.51178248658279</v>
       </c>
       <c r="E8" t="n">
-        <v>9.899395392329515e-10</v>
+        <v>6.024050037876781e-08</v>
       </c>
       <c r="F8" t="n">
-        <v>1.026995165974703e-29</v>
+        <v>1.480699957003865e-29</v>
       </c>
       <c r="G8" t="n">
-        <v>1.519763126751733e-38</v>
+        <v>1.198846743578444e-36</v>
       </c>
     </row>
     <row r="9">
@@ -2254,22 +2673,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.819530138951013</v>
+        <v>1.242870995564769</v>
       </c>
       <c r="C9" t="n">
-        <v>1.96127252946586</v>
+        <v>1.835047791623435</v>
       </c>
       <c r="D9" t="n">
-        <v>2.564862565996537</v>
+        <v>2.484177246290781</v>
       </c>
       <c r="E9" t="n">
-        <v>6.113981953471464e-07</v>
+        <v>0.0002196140196579739</v>
       </c>
       <c r="F9" t="n">
-        <v>4.995070606201012e-46</v>
+        <v>2.831638826653025e-40</v>
       </c>
       <c r="G9" t="n">
-        <v>7.87681249523527e-53</v>
+        <v>1.693824024018117e-49</v>
       </c>
     </row>
     <row r="10">
@@ -2279,22 +2698,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.40742470072684</v>
+        <v>1.055164105165745</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7274412161198832</v>
+        <v>0.7504989092538256</v>
       </c>
       <c r="D10" t="n">
-        <v>1.155515708680604</v>
+        <v>1.126559705870898</v>
       </c>
       <c r="E10" t="n">
-        <v>4.092229300288165e-07</v>
+        <v>3.029402832501997e-05</v>
       </c>
       <c r="F10" t="n">
-        <v>3.217138964401518e-13</v>
+        <v>5.71372393009243e-14</v>
       </c>
       <c r="G10" t="n">
-        <v>8.087796768107961e-17</v>
+        <v>2.552566972757433e-16</v>
       </c>
     </row>
     <row r="11">
@@ -2304,22 +2723,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.656534312837179</v>
+        <v>2.171883103116155</v>
       </c>
       <c r="C11" t="n">
-        <v>1.280500659065744</v>
+        <v>1.210159700618212</v>
       </c>
       <c r="D11" t="n">
-        <v>2.144540025567389</v>
+        <v>2.04794992955392</v>
       </c>
       <c r="E11" t="n">
-        <v>4.755541988123976e-25</v>
+        <v>1.5844574096999e-21</v>
       </c>
       <c r="F11" t="n">
-        <v>2.116965443915444e-31</v>
+        <v>1.461675065448795e-28</v>
       </c>
       <c r="G11" t="n">
-        <v>1.391522177081029e-66</v>
+        <v>8.808841185669859e-63</v>
       </c>
     </row>
     <row r="12">
@@ -2329,22 +2748,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-24.86531566082876</v>
+        <v>-14.01794667462334</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.5680745397128106</v>
+        <v>-0.2637544618191905</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9866338485614273</v>
+        <v>1.327134924151461</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9999428044951439</v>
+        <v>0.9924339347796514</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2149181465143124</v>
+        <v>0.5786711093083277</v>
       </c>
       <c r="G12" t="n">
-        <v>0.01644929614641583</v>
+        <v>0.001373010904984615</v>
       </c>
     </row>
     <row r="13">
@@ -2354,22 +2773,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.04591114823510779</v>
+        <v>0.1709323649944999</v>
       </c>
       <c r="C13" t="n">
-        <v>0.09913104283635533</v>
+        <v>0.1398967472932154</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3856616355711709</v>
+        <v>0.3302108867675468</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8477780122150184</v>
+        <v>0.4407205225971504</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3946192672907737</v>
+        <v>0.2259805163683647</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0005721521484913193</v>
+        <v>0.002842576288571956</v>
       </c>
     </row>
     <row r="14">
@@ -2379,22 +2798,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.027452726279264</v>
+        <v>0.8076626948818506</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7618582955121523</v>
+        <v>0.7450645636713432</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6589146745506477</v>
+        <v>0.7111557761480153</v>
       </c>
       <c r="E14" t="n">
-        <v>0.002985388240291528</v>
+        <v>0.02221800323762494</v>
       </c>
       <c r="F14" t="n">
-        <v>4.152858597941099e-07</v>
+        <v>7.432703525281997e-07</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0001189652972937943</v>
+        <v>2.6186000293683e-05</v>
       </c>
     </row>
     <row r="15">
@@ -2404,22 +2823,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-18.43912009243643</v>
+        <v>-7.905077030268631</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.04720229369215432</v>
+        <v>0.1308059919105614</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4169727575210204</v>
+        <v>-0.09222652171152634</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9989865428692736</v>
+        <v>0.9094331033843086</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9348006513040283</v>
+        <v>0.8346968554320502</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4691059777218898</v>
+        <v>0.8691224620463539</v>
       </c>
     </row>
     <row r="16">
@@ -2429,22 +2848,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.5423557875229834</v>
+        <v>0.4468242025947236</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5929645040646888</v>
+        <v>0.5300488866350797</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8593372049779545</v>
+        <v>0.7796558705012437</v>
       </c>
       <c r="E16" t="n">
-        <v>0.02981532446501784</v>
+        <v>0.06985792050866732</v>
       </c>
       <c r="F16" t="n">
-        <v>8.101554363998585e-07</v>
+        <v>1.040369198880752e-05</v>
       </c>
       <c r="G16" t="n">
-        <v>2.243957587172741e-14</v>
+        <v>5.40974115055396e-12</v>
       </c>
     </row>
     <row r="17">
@@ -2454,22 +2873,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.64022297713714</v>
+        <v>1.673693074414781</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2602559174681085</v>
+        <v>0.2656262080254225</v>
       </c>
       <c r="D17" t="n">
-        <v>1.261211864219074</v>
+        <v>1.188793015100458</v>
       </c>
       <c r="E17" t="n">
-        <v>1.696174593604742e-06</v>
+        <v>1.406398953958857e-07</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2400212150849518</v>
+        <v>0.2276739640436576</v>
       </c>
       <c r="G17" t="n">
-        <v>1.369733208956899e-13</v>
+        <v>2.401816145442772e-12</v>
       </c>
     </row>
     <row r="18">
@@ -2479,22 +2898,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.6509138663011501</v>
+        <v>0.7983087681870576</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3846650018552411</v>
+        <v>0.6128450457599623</v>
       </c>
       <c r="D18" t="n">
-        <v>1.332569210136702</v>
+        <v>1.40382499178984</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1356799358797796</v>
+        <v>0.04898897777997656</v>
       </c>
       <c r="F18" t="n">
-        <v>0.04502559817472448</v>
+        <v>0.001256410195058425</v>
       </c>
       <c r="G18" t="n">
-        <v>1.521587099398157e-13</v>
+        <v>5.374394672526657e-15</v>
       </c>
     </row>
     <row r="19">
@@ -2504,22 +2923,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.221041228187344</v>
+        <v>0.424836854902145</v>
       </c>
       <c r="C19" t="n">
-        <v>0.305750177860838</v>
+        <v>0.3294339833219447</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8946575353660055</v>
+        <v>0.7554865954563793</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1330412915359973</v>
+        <v>0.6931574903214774</v>
       </c>
       <c r="F19" t="n">
-        <v>0.5495724610838968</v>
+        <v>0.5453776285659337</v>
       </c>
       <c r="G19" t="n">
-        <v>0.007945571922081413</v>
+        <v>0.03307122571266116</v>
       </c>
     </row>
     <row r="20">
@@ -2529,22 +2948,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.5529890384204865</v>
+        <v>0.2947068729499688</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5359660231801163</v>
+        <v>0.4705733211158295</v>
       </c>
       <c r="D20" t="n">
-        <v>0.656411273523488</v>
+        <v>0.6321658318078278</v>
       </c>
       <c r="E20" t="n">
-        <v>0.05853103830700597</v>
+        <v>0.3169830035654355</v>
       </c>
       <c r="F20" t="n">
-        <v>6.334505979546354e-05</v>
+        <v>0.0004658801789631544</v>
       </c>
       <c r="G20" t="n">
-        <v>9.84307985013141e-07</v>
+        <v>2.087899125201278e-06</v>
       </c>
     </row>
     <row r="21">
@@ -2554,22 +2973,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>26.89827288780418</v>
+        <v>17.49217853058568</v>
       </c>
       <c r="C21" t="n">
-        <v>1.086023694398563</v>
+        <v>2.01597470256604</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3597258174559467</v>
+        <v>0.5239775716264492</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9999663223556616</v>
+        <v>0.9971092471731249</v>
       </c>
       <c r="F21" t="n">
-        <v>0.190436391647541</v>
+        <v>0.005539747458364034</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5777074499852382</v>
+        <v>0.369607073155947</v>
       </c>
     </row>
     <row r="22">
@@ -2579,22 +2998,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>25.64557205950843</v>
+        <v>16.22111413725358</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.639397148260221</v>
+        <v>0.3770786212133532</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.906212763065759</v>
+        <v>-1.703293237057226</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9999678907839809</v>
+        <v>0.9973193021223364</v>
       </c>
       <c r="F22" t="n">
-        <v>0.4435844540490982</v>
+        <v>0.6066154836927498</v>
       </c>
       <c r="G22" t="n">
-        <v>0.003643664004356399</v>
+        <v>0.004162519798198012</v>
       </c>
     </row>
     <row r="23">
@@ -2604,447 +3023,422 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>26.8902664340219</v>
+        <v>17.41350173396427</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7445378930279658</v>
+        <v>1.800975360084514</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3764997659548472</v>
+        <v>0.5190788301153122</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9999663323800414</v>
+        <v>0.9971222492187766</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3647806464671526</v>
+        <v>0.01207229924920727</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5546099579663156</v>
+        <v>0.3655192348548678</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>26.89210138654066</v>
+        <v>18.0237716547875</v>
       </c>
       <c r="C24" t="n">
-        <v>0.608256527249878</v>
+        <v>1.645340206530835</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1735180084875465</v>
+        <v>0.5365266483119305</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9999663300826122</v>
+        <v>0.9970213966297271</v>
       </c>
       <c r="F24" t="n">
-        <v>0.4603608184111033</v>
+        <v>0.02169214492658562</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7861313498203943</v>
+        <v>0.3490678536378558</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown]</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>27.54288840388136</v>
+        <v>18.34836374524782</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5749184336485476</v>
+        <v>2.226234029457544</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3240220742565854</v>
+        <v>1.988447499809717</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9999655152729109</v>
+        <v>0.9969677549283649</v>
       </c>
       <c r="F25" t="n">
-        <v>0.4833131827797216</v>
+        <v>0.006405806594479971</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6104182479745038</v>
+        <v>0.003137183983373757</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Education[T.Unknown]</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>28.01225077019447</v>
+        <v>-0.2349962666150485</v>
       </c>
       <c r="C26" t="n">
-        <v>1.200540821385546</v>
+        <v>0.2354716419122155</v>
       </c>
       <c r="D26" t="n">
-        <v>1.83918938428008</v>
+        <v>0.5419763259379948</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9999649276136625</v>
+        <v>0.03730243911258854</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1864879540470338</v>
+        <v>2.801709718369714e-05</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01182094250411756</v>
+        <v>2.026349937663265e-26</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.1034030540678401</v>
+        <v>-0.008665558785661076</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2761640592239748</v>
+        <v>-0.005544744969196756</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5621602198658907</v>
+        <v>-0.007609181655334347</v>
       </c>
       <c r="E27" t="n">
-        <v>0.3672331236967692</v>
+        <v>0.1243968010007841</v>
       </c>
       <c r="F27" t="n">
-        <v>8.184302607549786e-07</v>
+        <v>0.08129239085003359</v>
       </c>
       <c r="G27" t="n">
-        <v>1.755368883948526e-28</v>
+        <v>0.002999599526559995</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Trip_Distance</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.007672873226749813</v>
+        <v>-0.0004328589523547491</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.005945994020511732</v>
+        <v>-0.002930322567325783</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.008488999478906679</v>
+        <v>0.0001338731042165447</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1803397307870853</v>
+        <v>6.047360462274195e-34</v>
       </c>
       <c r="F28" t="n">
-        <v>0.06154974563546566</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0008783466923452423</v>
+        <v>1.553356962462715e-112</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Trip_Distance</t>
+          <t>CarAvailable</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.0004584056863628427</v>
+        <v>-2.244836479081002</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.002920530630045755</v>
+        <v>-2.578414652653116</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0001267309982300211</v>
+        <v>-2.84678216367976</v>
       </c>
       <c r="E29" t="n">
-        <v>6.362213098804123e-35</v>
+        <v>3.19631774220743e-57</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>3.842207037792874e-161</v>
       </c>
       <c r="G29" t="n">
-        <v>1.644696617949135e-102</v>
+        <v>1.173466946046925e-247</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CarAvailable</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-2.34080332829096</v>
+        <v>0.152737621764095</v>
       </c>
       <c r="C30" t="n">
-        <v>-2.581622166156417</v>
+        <v>0.09825301139644586</v>
       </c>
       <c r="D30" t="n">
-        <v>-2.897901337583716</v>
+        <v>0.0726993912694472</v>
       </c>
       <c r="E30" t="n">
-        <v>9.930368644803141e-61</v>
+        <v>0.000386061818328364</v>
       </c>
       <c r="F30" t="n">
-        <v>5.888930625709162e-159</v>
+        <v>1.996067847244452e-05</v>
       </c>
       <c r="G30" t="n">
-        <v>5.580837632862846e-250</v>
+        <v>0.0001760936375772073</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>UrbPopDensity_origin</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.1849390039906597</v>
+        <v>6.1929531410191e-06</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1067113032334882</v>
+        <v>1.802288554757832e-05</v>
       </c>
       <c r="D31" t="n">
-        <v>0.08075410714333879</v>
+        <v>1.068398629777949e-05</v>
       </c>
       <c r="E31" t="n">
-        <v>2.740037582374113e-05</v>
+        <v>0.3175841473890378</v>
       </c>
       <c r="F31" t="n">
-        <v>3.90524662368341e-06</v>
+        <v>1.671463430854748e-05</v>
       </c>
       <c r="G31" t="n">
-        <v>3.663760619643892e-05</v>
+        <v>0.002972306560041441</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>UrbPopDensity_origin</t>
+          <t>DistSubcenter_origin</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>5.264108389701951e-06</v>
+        <v>0.07512911999173082</v>
       </c>
       <c r="C32" t="n">
-        <v>1.584178178666645e-05</v>
+        <v>-0.01368223952115897</v>
       </c>
       <c r="D32" t="n">
-        <v>9.409892585955496e-06</v>
+        <v>0.01792469042355934</v>
       </c>
       <c r="E32" t="n">
-        <v>0.4027649250287798</v>
+        <v>0.03251478559851654</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0001461356315508452</v>
+        <v>0.3501979571722854</v>
       </c>
       <c r="G32" t="n">
-        <v>0.008862253756950845</v>
+        <v>0.2018435178988259</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>DistSubcenter_origin</t>
+          <t>DistCenter_origin</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.05755408549677413</v>
+        <v>-0.03964209705719311</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.006767301881318133</v>
+        <v>-0.07844612690726409</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0268746638571536</v>
+        <v>-0.09008127167629862</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1114135114982404</v>
+        <v>0.1466524867211501</v>
       </c>
       <c r="F33" t="n">
-        <v>0.6433632045306348</v>
+        <v>1.229976705033748e-10</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05570022171405949</v>
+        <v>2.274514544942152e-14</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>DistCenter_origin</t>
+          <t>UrbBuildDensity_origin</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.04381524789332841</v>
+        <v>3.470765409271663e-08</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.0720003234865933</v>
+        <v>2.820009561086523e-08</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.09202166298455668</v>
+        <v>2.807158007717533e-08</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1173919966586269</v>
+        <v>0.03587023348503054</v>
       </c>
       <c r="F34" t="n">
-        <v>2.887457773585009e-09</v>
+        <v>0.004435330411463125</v>
       </c>
       <c r="G34" t="n">
-        <v>5.229519464593244e-15</v>
+        <v>0.001158136918752897</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_origin</t>
+          <t>IntersecDensity_origin</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4.779715007983212e-08</v>
+        <v>0.02354944660647012</v>
       </c>
       <c r="C35" t="n">
-        <v>3.879664781841494e-08</v>
+        <v>0.01065251911484716</v>
       </c>
       <c r="D35" t="n">
-        <v>3.364447223513766e-08</v>
+        <v>0.008427088113442154</v>
       </c>
       <c r="E35" t="n">
-        <v>0.004475027904769112</v>
+        <v>0.0006170822726134222</v>
       </c>
       <c r="F35" t="n">
-        <v>8.840186969099656e-05</v>
+        <v>0.0001778289204368645</v>
       </c>
       <c r="G35" t="n">
-        <v>9.698682130316611e-05</v>
+        <v>0.00177732785705198</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>IntersecDensity_origin</t>
+          <t>street_length_origin</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.01697988572258662</v>
+        <v>0.03027670602869886</v>
       </c>
       <c r="C36" t="n">
-        <v>0.01127668128441383</v>
+        <v>0.007376426717331078</v>
       </c>
       <c r="D36" t="n">
-        <v>0.006170968211454592</v>
+        <v>0.002631573323199144</v>
       </c>
       <c r="E36" t="n">
-        <v>0.01691336406966801</v>
+        <v>0.001907682534371743</v>
       </c>
       <c r="F36" t="n">
-        <v>6.962030432988062e-05</v>
+        <v>0.0396471766355639</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02165461431495624</v>
+        <v>0.4498826771720518</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>street_length_origin</t>
+          <t>bike_lane_share_origin</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.0283144037518364</v>
+        <v>3.227981677763457</v>
       </c>
       <c r="C37" t="n">
-        <v>0.006426427829246052</v>
+        <v>-0.1212859409834326</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0008362971555023522</v>
+        <v>0.1222214713625394</v>
       </c>
       <c r="E37" t="n">
-        <v>0.004326134204562833</v>
+        <v>1.749823347287719e-07</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07026964129732111</v>
+        <v>0.7261975649861664</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8089142509686976</v>
+        <v>0.6894565592242254</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>bike_lane_share_origin</t>
+          <t>LU_UrbFab_origin</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3.180401693647876</v>
+        <v>-0.7379645956837619</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.15401173676229</v>
+        <v>-0.5270526382310177</v>
       </c>
       <c r="D38" t="n">
-        <v>0.1143645125100451</v>
+        <v>-0.5576003244348047</v>
       </c>
       <c r="E38" t="n">
-        <v>3.311666203197078e-07</v>
+        <v>0.1985217382471939</v>
       </c>
       <c r="F38" t="n">
-        <v>0.6555393473357343</v>
+        <v>0.06821494541943939</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7067756793684328</v>
+        <v>0.03188628678486041</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>LU_UrbFab_origin</t>
+          <t>LU_Comm_origin</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-0.2906545554536493</v>
+        <v>0.4393949181015356</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.3133066278830576</v>
+        <v>-1.417433420891329</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.4774184141971224</v>
+        <v>-0.3597902028640938</v>
       </c>
       <c r="E39" t="n">
-        <v>0.6238851045936569</v>
+        <v>0.5688397449106204</v>
       </c>
       <c r="F39" t="n">
-        <v>0.2751378520368561</v>
+        <v>3.639396778945248e-05</v>
       </c>
       <c r="G39" t="n">
-        <v>0.06458877476993277</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>LU_Comm_origin</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>0.6643713748957137</v>
-      </c>
-      <c r="C40" t="n">
-        <v>-1.328728742503823</v>
-      </c>
-      <c r="D40" t="n">
-        <v>-0.4803803271655435</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.4012327928012207</v>
-      </c>
-      <c r="F40" t="n">
-        <v>9.577793415972507e-05</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.1378467328563753</v>
+        <v>0.2682261426363352</v>
       </c>
     </row>
   </sheetData>
@@ -3058,7 +3452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3109,24 +3503,12 @@
           <t>Intercept</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>-20.02147981632149</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2.832138701994665</v>
-      </c>
-      <c r="D2" t="n">
-        <v>-1.767132062055097</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.9850988932041572</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.001942451311949286</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.03215331856899528</v>
-      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3134,24 +3516,12 @@
           <t>Trip_Time[T.Daytime Off-Peak]</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>-0.1020044643597728</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-0.0119622056478818</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-0.08139866647194713</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.5509859463120519</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.8887117382212267</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.3048538308568984</v>
-      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3159,24 +3529,12 @@
           <t>Trip_Time[T.Evening]</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>-0.4992697465648589</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-0.6094987937275823</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-0.8393714483307936</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.03978155710287763</v>
-      </c>
-      <c r="F4" t="n">
-        <v>9.297309547671101e-07</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2.624914642821078e-11</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3184,24 +3542,12 @@
           <t>Trip_Time[T.Lunch]</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>-0.343303356594568</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1407844035841851</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-0.2507618849689568</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.113330709100007</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.151131591425947</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.00637054055574387</v>
-      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3209,24 +3555,12 @@
           <t>Trip_Time[T.Nighttime Off-Peak]</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>-0.03499541556448602</v>
-      </c>
-      <c r="C6" t="n">
-        <v>-0.3280967630016148</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-0.4738291681948607</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.8861899132667813</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.04837493856813586</v>
-      </c>
-      <c r="G6" t="n">
-        <v>6.838132110366012e-07</v>
-      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3234,24 +3568,12 @@
           <t>Trip_Time[T.PM Rush]</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>-0.1764064353339895</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.01599052277914979</v>
-      </c>
-      <c r="D7" t="n">
-        <v>-0.5122551895302992</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.3459568553507235</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.8505616045324085</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1.139174169890794e-07</v>
-      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3259,24 +3581,12 @@
           <t>Trip_Purpose_Agg[T.Home↔Leisure]</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>1.337154930160288</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1.022434125774201</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1.457362783004581</v>
-      </c>
-      <c r="E8" t="n">
-        <v>3.27472217779621e-09</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1.183064592076765e-31</v>
-      </c>
-      <c r="G8" t="n">
-        <v>6.946289931881694e-36</v>
-      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3284,24 +3594,12 @@
           <t>Trip_Purpose_Agg[T.Home↔School]</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>1.274240806071395</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1.872123734727926</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2.411303214940194</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.0001756318356499031</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1.033851549220028e-41</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1.987147622666106e-48</v>
-      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3309,24 +3607,12 @@
           <t>Trip_Purpose_Agg[T.Home↔Shopping]</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>1.168295608423626</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.6864269018185718</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1.047381332260004</v>
-      </c>
-      <c r="E10" t="n">
-        <v>4.251188079637649e-06</v>
-      </c>
-      <c r="F10" t="n">
-        <v>3.304411163256589e-12</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1.046534098156136e-14</v>
-      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3334,24 +3620,12 @@
           <t>Trip_Purpose_Agg[T.Home↔Work]</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>2.251006794522846</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.2509323825193</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2.05095572759076</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1.845578303825964e-22</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1.138076588711085e-29</v>
-      </c>
-      <c r="G11" t="n">
-        <v>3.707160210472986e-65</v>
-      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3359,24 +3633,12 @@
           <t>Trip_Purpose_Agg[T.Other]</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>-21.3639546629692</v>
-      </c>
-      <c r="C12" t="n">
-        <v>-0.3721988016543396</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.9835804494588328</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.9996665763610241</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.409451681892912</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.01254533519524928</v>
-      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3384,24 +3646,12 @@
           <t>Occupation[T.Employed_PartTime]</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>0.1980143129883833</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1171473102477061</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.3692827020823053</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.3668684978408785</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.3152923025764157</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.0008707197267913502</v>
-      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3409,24 +3659,12 @@
           <t>Occupation[T.Home_Partner]</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>0.6619560418272533</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.7532857372418843</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.6743015701169069</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.07006925948882277</v>
-      </c>
-      <c r="F14" t="n">
-        <v>4.674169844590355e-07</v>
-      </c>
-      <c r="G14" t="n">
-        <v>8.711797588518662e-05</v>
-      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3434,24 +3672,12 @@
           <t>Occupation[T.Other]</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>-40.51293762163783</v>
-      </c>
-      <c r="C15" t="n">
-        <v>-0.3307365863356705</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.03897536777383994</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.9999999591118163</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.5868782726824116</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.9424092934989255</v>
-      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3459,24 +3685,12 @@
           <t>Occupation[T.Retired]</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>0.3753960214508149</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.5200029004969219</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.7980412149028628</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.1249025860329975</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1.389506198472009e-05</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1.345269134078314e-12</v>
-      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3484,24 +3698,12 @@
           <t>Occupation[T.Student_3rdLevel]</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>1.483231743440752</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.4202876615125699</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1.363665576781004</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1.041990556407665e-05</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.06189925200812588</v>
-      </c>
-      <c r="G17" t="n">
-        <v>4.459782825549724e-15</v>
-      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3509,24 +3711,12 @@
           <t>Occupation[T.Student_School]</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>0.8483464224960943</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.5838172472346274</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1.4457006210293</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.03894502777023634</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.002367926192169252</v>
-      </c>
-      <c r="G18" t="n">
-        <v>8.601141321982662e-16</v>
-      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3534,24 +3724,12 @@
           <t>Occupation[T.Trainee]</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>1.226561767390528</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.08679541665715886</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.8185122898432743</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.1340267375823253</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.8808552251990653</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.02482354543180985</v>
-      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3559,24 +3737,12 @@
           <t>Occupation[T.Unemployed]</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>0.449083565964248</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.5000673375354862</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.6443049281300038</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.1119382267060997</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.0001706656958541031</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1.758505143313294e-06</v>
-      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3584,24 +3750,12 @@
           <t>Education[T.Elementary]</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>14.38309358286761</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1.365668030843565</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.8066704997631828</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.9892949855503228</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.06157305849204148</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.1969899266953369</v>
-      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3609,24 +3763,12 @@
           <t>Education[T.No diploma yet]</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>13.11787274644053</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-0.2282023818538856</v>
-      </c>
-      <c r="D22" t="n">
-        <v>-1.374219870448333</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.9902366120571104</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.7567314890532975</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.03036136963624247</v>
-      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3634,449 +3776,220 @@
           <t>Education[T.Secondary]</t>
         </is>
       </c>
-      <c r="B23" t="n">
-        <v>14.32327826267148</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1.170762682121548</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.8183667316764166</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.9893395017717005</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.1048515455314113</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.1840200259956709</v>
-      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>14.46104202916645</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1.052986042226975</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.5959014174989397</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.9892369735217172</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.1461078152068427</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.3352819408065978</v>
-      </c>
+          <t>Education[T.University]</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>14.87438489557657</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.993644127150533</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.7504558956789422</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.9889293510903044</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.167824487235626</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.2220861253342915</v>
-      </c>
+          <t>Education[T.Unknown]</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Education[T.Unknown]</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>15.07648628001042</v>
-      </c>
-      <c r="C26" t="n">
-        <v>1.519540734765908</v>
-      </c>
-      <c r="D26" t="n">
-        <v>1.992574800508579</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.9887789445998906</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.05989330105641305</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.004356308004673945</v>
-      </c>
+          <t>Sex</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sex</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>-0.1334054893313062</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.2826522888190065</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.5622460728763817</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.2380742962724574</v>
-      </c>
-      <c r="F27" t="n">
-        <v>4.514768261877163e-07</v>
-      </c>
-      <c r="G27" t="n">
-        <v>2.213966833569916e-28</v>
-      </c>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>-0.005675325613265087</v>
-      </c>
-      <c r="C28" t="n">
-        <v>-0.004672004978182408</v>
-      </c>
-      <c r="D28" t="n">
-        <v>-0.007076416040570092</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.3148547927116161</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.140945130109603</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.005684757903087</v>
-      </c>
+          <t>Trip_Distance</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Trip_Distance</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>-0.000450030103628315</v>
-      </c>
-      <c r="C29" t="n">
-        <v>-0.0029213896383557</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.0001348557669033791</v>
-      </c>
-      <c r="E29" t="n">
-        <v>2.199128150678511e-34</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>1.756877321287324e-115</v>
-      </c>
+          <t>CarAvailable</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CarAvailable</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>-2.296536437437053</v>
-      </c>
-      <c r="C30" t="n">
-        <v>-2.548312940761252</v>
-      </c>
-      <c r="D30" t="n">
-        <v>-2.869960324281428</v>
-      </c>
-      <c r="E30" t="n">
-        <v>7.171006769682867e-60</v>
-      </c>
-      <c r="F30" t="n">
-        <v>6.846300069416448e-158</v>
-      </c>
-      <c r="G30" t="n">
-        <v>5.76298250325587e-249</v>
-      </c>
+          <t>HHSize</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>HHSize</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>0.1841039463731048</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.08339439415316209</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.0702557373317779</v>
-      </c>
-      <c r="E31" t="n">
-        <v>1.671002622792542e-05</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.0002789874763489044</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.0003193742030298314</v>
-      </c>
+          <t>UrbPopDensity_origin</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>UrbPopDensity_origin</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>3.554965753459361e-06</v>
-      </c>
-      <c r="C32" t="n">
-        <v>1.424661052663161e-05</v>
-      </c>
-      <c r="D32" t="n">
-        <v>9.146708563135791e-06</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.5713793988112827</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0.0006966443487553492</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0.01132592466235774</v>
-      </c>
+          <t>DistSubcenter_origin</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>DistSubcenter_origin</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>0.07495948998747795</v>
-      </c>
-      <c r="C33" t="n">
-        <v>-0.007838630762276991</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.0205266618062125</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.03281987078087589</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.5913276572294179</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0.1428098152969818</v>
-      </c>
+          <t>DistCenter_origin</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>DistCenter_origin</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>-0.03655958549756407</v>
-      </c>
-      <c r="C34" t="n">
-        <v>-0.08104745109428131</v>
-      </c>
-      <c r="D34" t="n">
-        <v>-0.09515031779085403</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.1791121913688867</v>
-      </c>
-      <c r="F34" t="n">
-        <v>3.035234760188871e-11</v>
-      </c>
-      <c r="G34" t="n">
-        <v>5.657532756398037e-16</v>
-      </c>
+          <t>UrbBuildDensity_origin</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_origin</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>3.82540967210631e-08</v>
-      </c>
-      <c r="C35" t="n">
-        <v>3.844119386207419e-08</v>
-      </c>
-      <c r="D35" t="n">
-        <v>3.1020490807346e-08</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.02113401766569649</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0.0001159610524956447</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0.0003265296693142882</v>
-      </c>
+          <t>IntersecDensity_origin</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>IntersecDensity_origin</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>0.01829562555144636</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.007870738291833608</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.008044131623242535</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.00752452269481936</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.005691330219687678</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0.00277207778607023</v>
-      </c>
+          <t>street_length_origin</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>street_length_origin</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>0.02467807889720163</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0.004543586278397586</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.003306260331699252</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.01130641640511252</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.2003036402341951</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0.3372938344020862</v>
-      </c>
+          <t>bike_lane_share_origin</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>bike_lane_share_origin</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>3.544882044643125</v>
-      </c>
-      <c r="C38" t="n">
-        <v>-0.0873132308856351</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0.1628298778410553</v>
-      </c>
-      <c r="E38" t="n">
-        <v>1.111084894309885e-08</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0.801096820324996</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0.5941024027159068</v>
-      </c>
+          <t>LU_UrbFab_origin</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>LU_UrbFab_origin</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>-0.2806773363681819</v>
-      </c>
-      <c r="C39" t="n">
-        <v>-0.4114774301385761</v>
-      </c>
-      <c r="D39" t="n">
-        <v>-0.656717951349385</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.628422246215144</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0.1524750782023262</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0.01125298725364081</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
           <t>LU_Comm_origin</t>
         </is>
       </c>
-      <c r="B40" t="n">
-        <v>-0.01772901419694937</v>
-      </c>
-      <c r="C40" t="n">
-        <v>-1.491949241608875</v>
-      </c>
-      <c r="D40" t="n">
-        <v>-0.6428831067930391</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.9820152459705124</v>
-      </c>
-      <c r="F40" t="n">
-        <v>1.322596349347643e-05</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.04580868011678176</v>
-      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4089,7 +4002,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4141,22 +4054,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-20.23111406509192</v>
+        <v>-28.76615876660703</v>
       </c>
       <c r="C2" t="n">
-        <v>2.164060938598814</v>
+        <v>2.817589390201332</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.95957249312848</v>
+        <v>-1.755819899010851</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9779480834798047</v>
+        <v>0.9997289785713857</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0154691080034366</v>
+        <v>0.002043288874176779</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02071719399148761</v>
+        <v>0.03323214137044524</v>
       </c>
     </row>
     <row r="3">
@@ -4166,22 +4079,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.0965021652780218</v>
+        <v>-0.1035589215948173</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04115682101370029</v>
+        <v>-0.01267733184566757</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.05546512938340969</v>
+        <v>-0.08194005855121805</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5791804045124278</v>
+        <v>0.5450951993116675</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6336341691195233</v>
+        <v>0.882077164245029</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4833218659259689</v>
+        <v>0.3015451456298499</v>
       </c>
     </row>
     <row r="4">
@@ -4191,22 +4104,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.6041765220004247</v>
+        <v>-0.497401404314998</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.6790760229713202</v>
+        <v>-0.6100433790199984</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.9066050890153693</v>
+        <v>-0.8391099534322917</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01450400780931955</v>
+        <v>0.04053452389805497</v>
       </c>
       <c r="F4" t="n">
-        <v>4.158893502843866e-08</v>
+        <v>9.100443279179266e-07</v>
       </c>
       <c r="G4" t="n">
-        <v>4.605306441084239e-13</v>
+        <v>2.698918681177607e-11</v>
       </c>
     </row>
     <row r="5">
@@ -4216,22 +4129,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.4723429668387745</v>
+        <v>-0.3402553032334946</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1324697705464115</v>
+        <v>0.1423115447828389</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.2932349174758407</v>
+        <v>-0.2485939416826215</v>
       </c>
       <c r="E5" t="n">
-        <v>0.03627016255365353</v>
+        <v>0.1165780383120626</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1770229837431344</v>
+        <v>0.1468786699110346</v>
       </c>
       <c r="G5" t="n">
-        <v>0.001536956411445676</v>
+        <v>0.006832154564701797</v>
       </c>
     </row>
     <row r="6">
@@ -4241,22 +4154,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.08113763672433122</v>
+        <v>-0.04130108428726683</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.2134811778654927</v>
+        <v>-0.3247626209541006</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.3991839086718004</v>
+        <v>-0.4657541337596418</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7329677960803174</v>
+        <v>0.865692210332222</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2098801361345454</v>
+        <v>0.05067987559078777</v>
       </c>
       <c r="G6" t="n">
-        <v>2.788026646870451e-05</v>
+        <v>1.022486248704788e-06</v>
       </c>
     </row>
     <row r="7">
@@ -4266,22 +4179,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.2370784003021048</v>
+        <v>-0.1734788129665832</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0296718752952869</v>
+        <v>0.01551012453484122</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.5558199272293571</v>
+        <v>-0.512880020285172</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2202376483903341</v>
+        <v>0.3539331911631644</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7284343417068506</v>
+        <v>0.85495708962891</v>
       </c>
       <c r="G7" t="n">
-        <v>1.019472397612183e-08</v>
+        <v>1.089963337918177e-07</v>
       </c>
     </row>
     <row r="8">
@@ -4291,22 +4204,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.363819119973716</v>
+        <v>1.336213076090498</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9546552924085268</v>
+        <v>1.0243275307354</v>
       </c>
       <c r="D8" t="n">
-        <v>1.424859799231591</v>
+        <v>1.460319594321632</v>
       </c>
       <c r="E8" t="n">
-        <v>4.531268828494013e-09</v>
+        <v>3.333696198434429e-09</v>
       </c>
       <c r="F8" t="n">
-        <v>1.533572509305867e-27</v>
+        <v>8.822846061000616e-32</v>
       </c>
       <c r="G8" t="n">
-        <v>3.7198464447056e-34</v>
+        <v>4.979523427793187e-36</v>
       </c>
     </row>
     <row r="9">
@@ -4316,22 +4229,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.280388526018312</v>
+        <v>1.268933101557284</v>
       </c>
       <c r="C9" t="n">
-        <v>1.805550163075268</v>
+        <v>1.87571514625971</v>
       </c>
       <c r="D9" t="n">
-        <v>2.455572117542554</v>
+        <v>2.419029640697782</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0001567129244145082</v>
+        <v>0.0001840501442443713</v>
       </c>
       <c r="F9" t="n">
-        <v>7.069937565032027e-39</v>
+        <v>7.246994877952169e-42</v>
       </c>
       <c r="G9" t="n">
-        <v>7.703027788867166e-50</v>
+        <v>1.01030357592058e-48</v>
       </c>
     </row>
     <row r="10">
@@ -4341,22 +4254,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9670520989055273</v>
+        <v>1.166351339925326</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6775731368030484</v>
+        <v>0.6893425685645045</v>
       </c>
       <c r="D10" t="n">
-        <v>1.05253256623099</v>
+        <v>1.052655491449968</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0003958362072221182</v>
+        <v>4.404676069528492e-06</v>
       </c>
       <c r="F10" t="n">
-        <v>1.113759091935143e-11</v>
+        <v>2.588901066718831e-12</v>
       </c>
       <c r="G10" t="n">
-        <v>6.399733866536405e-15</v>
+        <v>7.574092079863083e-15</v>
       </c>
     </row>
     <row r="11">
@@ -4366,22 +4279,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.302142577768135</v>
+        <v>2.249183104275618</v>
       </c>
       <c r="C11" t="n">
-        <v>1.1888869893469</v>
+        <v>1.253047053109834</v>
       </c>
       <c r="D11" t="n">
-        <v>1.983539579972412</v>
+        <v>2.052896582507853</v>
       </c>
       <c r="E11" t="n">
-        <v>1.37465723377179e-22</v>
+        <v>1.996154127358421e-22</v>
       </c>
       <c r="F11" t="n">
-        <v>1.93085385540015e-27</v>
+        <v>8.628035577807108e-30</v>
       </c>
       <c r="G11" t="n">
-        <v>2.909232992952409e-61</v>
+        <v>2.640915650989243e-65</v>
       </c>
     </row>
     <row r="12">
@@ -4391,22 +4304,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-154.5643680581171</v>
+        <v>-21.3641310345134</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01144755848415159</v>
+        <v>-0.3655294913983139</v>
       </c>
       <c r="D12" t="n">
-        <v>1.34836982380848</v>
+        <v>0.9904793586446614</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0.9996679630400473</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9816838968569378</v>
+        <v>0.4177335522121381</v>
       </c>
       <c r="G12" t="n">
-        <v>0.000584779098300449</v>
+        <v>0.01162504775455656</v>
       </c>
     </row>
     <row r="13">
@@ -4416,22 +4329,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.08227942758241459</v>
+        <v>0.1968784146664379</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1315007926543049</v>
+        <v>0.1130206003241594</v>
       </c>
       <c r="D13" t="n">
-        <v>0.386762834098631</v>
+        <v>0.3663205855815893</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7377456025559461</v>
+        <v>0.3695396739557888</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2611604493241945</v>
+        <v>0.3325381520245635</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0004448859174800966</v>
+        <v>0.0009591662628764458</v>
       </c>
     </row>
     <row r="14">
@@ -4441,22 +4354,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9884010955214836</v>
+        <v>0.6576082519721811</v>
       </c>
       <c r="C14" t="n">
-        <v>0.839938063790758</v>
+        <v>0.7540965310968974</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7424338546751704</v>
+        <v>0.6730826794919372</v>
       </c>
       <c r="E14" t="n">
-        <v>0.004091914605434565</v>
+        <v>0.07196411855205713</v>
       </c>
       <c r="F14" t="n">
-        <v>4.255010258152634e-08</v>
+        <v>4.470302770850158e-07</v>
       </c>
       <c r="G14" t="n">
-        <v>1.103454643876979e-05</v>
+        <v>8.869270669077823e-05</v>
       </c>
     </row>
     <row r="15">
@@ -4466,22 +4379,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-15.88375250828679</v>
+        <v>-109.3858306610953</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.1336427865258811</v>
+        <v>-0.3115368692848147</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.09159394487788995</v>
+        <v>0.07203531020096998</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9966543811261327</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8165449138787403</v>
+        <v>0.608990115362665</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8792811470000461</v>
+        <v>0.8936476731354106</v>
       </c>
     </row>
     <row r="16">
@@ -4491,22 +4404,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.2450149354907271</v>
+        <v>0.3730064544385006</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6625441430673776</v>
+        <v>0.5168995943719517</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7354040289952766</v>
+        <v>0.796547594462903</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3391608949521718</v>
+        <v>0.1269378144671481</v>
       </c>
       <c r="F16" t="n">
-        <v>4.815783592623675e-08</v>
+        <v>1.549377339378931e-05</v>
       </c>
       <c r="G16" t="n">
-        <v>7.725957725362171e-11</v>
+        <v>1.480382116156099e-12</v>
       </c>
     </row>
     <row r="17">
@@ -4516,22 +4429,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.91588629191792</v>
+        <v>1.559793509811209</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3195165422356673</v>
+        <v>0.3799104625442982</v>
       </c>
       <c r="D17" t="n">
-        <v>1.234647089920598</v>
+        <v>1.270751861891814</v>
       </c>
       <c r="E17" t="n">
-        <v>1.979232857332325e-08</v>
+        <v>1.192826733414552e-06</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1533694629060572</v>
+        <v>0.08553988576310262</v>
       </c>
       <c r="G17" t="n">
-        <v>7.837684416033167e-13</v>
+        <v>6.456032314808317e-14</v>
       </c>
     </row>
     <row r="18">
@@ -4541,22 +4454,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.7391075278613203</v>
+        <v>0.8257014467383793</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5509809365780128</v>
+        <v>0.6059479880940662</v>
       </c>
       <c r="D18" t="n">
-        <v>1.307875742288381</v>
+        <v>1.488529473256197</v>
       </c>
       <c r="E18" t="n">
-        <v>0.07274615985495431</v>
+        <v>0.04147638619971434</v>
       </c>
       <c r="F18" t="n">
-        <v>0.004402003011775396</v>
+        <v>0.001479376634838912</v>
       </c>
       <c r="G18" t="n">
-        <v>3.888105083010735e-13</v>
+        <v>8.04113191431855e-17</v>
       </c>
     </row>
     <row r="19">
@@ -4566,22 +4479,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.335410741924677</v>
+        <v>1.186069056339939</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5064202253689549</v>
+        <v>0.1201660895040431</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9391576203014473</v>
+        <v>0.8826343115241244</v>
       </c>
       <c r="E19" t="n">
-        <v>0.09966806678847207</v>
+        <v>0.145633452024617</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3389888669204378</v>
+        <v>0.8355097835631904</v>
       </c>
       <c r="G19" t="n">
-        <v>0.006670301032908743</v>
+        <v>0.01521973795854659</v>
       </c>
     </row>
     <row r="20">
@@ -4591,22 +4504,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.3686735443727747</v>
+        <v>0.4505780342233712</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5296922908104202</v>
+        <v>0.5002747275381283</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7032885720763175</v>
+        <v>0.6430624991253411</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2242274800005813</v>
+        <v>0.1106489668763296</v>
       </c>
       <c r="F20" t="n">
-        <v>9.339973138607588e-05</v>
+        <v>0.0001690794798903464</v>
       </c>
       <c r="G20" t="n">
-        <v>1.660581692033399e-07</v>
+        <v>1.820709967286029e-06</v>
       </c>
     </row>
     <row r="21">
@@ -4616,22 +4529,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>14.40423281020662</v>
+        <v>23.14121000128353</v>
       </c>
       <c r="C21" t="n">
-        <v>1.741232036541199</v>
+        <v>1.355298328995775</v>
       </c>
       <c r="D21" t="n">
-        <v>1.000414776813211</v>
+        <v>0.7752505345428506</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9842983681646869</v>
+        <v>0.9997819742326831</v>
       </c>
       <c r="F21" t="n">
-        <v>0.01323364788477427</v>
+        <v>0.06352800805772109</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1268481338099499</v>
+        <v>0.2147964124064491</v>
       </c>
     </row>
     <row r="22">
@@ -4641,22 +4554,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>13.13509338112464</v>
+        <v>21.87878089506586</v>
       </c>
       <c r="C22" t="n">
-        <v>0.10664731638258</v>
+        <v>-0.2452233408182039</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.179266477919769</v>
+        <v>-1.414451126716458</v>
       </c>
       <c r="E22" t="n">
-        <v>0.985681664894595</v>
+        <v>0.9997938682550039</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8804046967115107</v>
+        <v>0.7391594111847375</v>
       </c>
       <c r="G22" t="n">
-        <v>0.07595695232795184</v>
+        <v>0.02574136393831905</v>
       </c>
     </row>
     <row r="23">
@@ -4666,447 +4579,422 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>14.15302392085242</v>
+        <v>23.10694120883593</v>
       </c>
       <c r="C23" t="n">
-        <v>1.515117837909398</v>
+        <v>1.131624055084975</v>
       </c>
       <c r="D23" t="n">
-        <v>1.017553446610324</v>
+        <v>0.7456483108414006</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9845721682242387</v>
+        <v>0.9997822970973715</v>
       </c>
       <c r="F23" t="n">
-        <v>0.02886907219974716</v>
+        <v>0.1165987476551842</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1154191278236351</v>
+        <v>0.2254548912300206</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>13.85685031628422</v>
+        <v>23.60897105632028</v>
       </c>
       <c r="C24" t="n">
-        <v>1.367012453781968</v>
+        <v>0.99450781364589</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7733213659514686</v>
+        <v>0.7518517590684218</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9848949805077525</v>
+        <v>0.9997775672046864</v>
       </c>
       <c r="F24" t="n">
-        <v>0.04955276039399958</v>
+        <v>0.1674545928810161</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2330805349288524</v>
+        <v>0.2211191391138271</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown]</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>14.7685714309089</v>
+        <v>23.8160429943709</v>
       </c>
       <c r="C25" t="n">
-        <v>1.375351078465541</v>
+        <v>1.514962297368936</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9587942053578631</v>
+        <v>1.982987070586915</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9839012652812695</v>
+        <v>0.999775616268812</v>
       </c>
       <c r="F25" t="n">
-        <v>0.04679293279032729</v>
+        <v>0.06065626436703769</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1371981273614963</v>
+        <v>0.004536940944417069</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Education[T.Unknown]</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>15.04294014632777</v>
+        <v>-0.1343675262367087</v>
       </c>
       <c r="C26" t="n">
-        <v>1.846465479351552</v>
+        <v>0.2825889070589676</v>
       </c>
       <c r="D26" t="n">
-        <v>2.358272278412104</v>
+        <v>0.5604324696536626</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9836022358510758</v>
+        <v>0.2345644742719659</v>
       </c>
       <c r="F26" t="n">
-        <v>0.01849480413039756</v>
+        <v>4.533916049581498e-07</v>
       </c>
       <c r="G26" t="n">
-        <v>0.001163159108975609</v>
+        <v>3.114944233491879e-28</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.1324134919860645</v>
+        <v>-0.005711126638343959</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2641121796890921</v>
+        <v>-0.004416369132457778</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5481597139388364</v>
+        <v>-0.006752991242908422</v>
       </c>
       <c r="E27" t="n">
-        <v>0.2455901772898471</v>
+        <v>0.3108603524497185</v>
       </c>
       <c r="F27" t="n">
-        <v>2.592574294555663e-06</v>
+        <v>0.1626835300301084</v>
       </c>
       <c r="G27" t="n">
-        <v>3.838037866334231e-27</v>
+        <v>0.008190681793485007</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Trip_Distance</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.00637942328506065</v>
+        <v>-0.0004499784083200336</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.007651796509662781</v>
+        <v>-0.002921746724612918</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.007500165462447316</v>
+        <v>0.0001344514243151986</v>
       </c>
       <c r="E28" t="n">
-        <v>0.2639522334294869</v>
+        <v>2.16806272297531e-34</v>
       </c>
       <c r="F28" t="n">
-        <v>0.01698664838458488</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0034471704279016</v>
+        <v>5.073505394011856e-115</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Trip_Distance</t>
+          <t>CarAvailable</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.0004393383888284951</v>
+        <v>-2.298366875459472</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.002940539137701638</v>
+        <v>-2.552194343893654</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0001323082508805805</v>
+        <v>-2.874125234453902</v>
       </c>
       <c r="E29" t="n">
-        <v>6.292028475080928e-34</v>
+        <v>4.882047497981226e-60</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1.815021785141192e-158</v>
       </c>
       <c r="G29" t="n">
-        <v>5.519180312189072e-112</v>
+        <v>6.739692486963876e-250</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CarAvailable</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-2.284203948809952</v>
+        <v>0.1821975496417382</v>
       </c>
       <c r="C30" t="n">
-        <v>-2.530260960235412</v>
+        <v>0.08482774625684382</v>
       </c>
       <c r="D30" t="n">
-        <v>-2.83284825261326</v>
+        <v>0.07254504322757713</v>
       </c>
       <c r="E30" t="n">
-        <v>1.687381356059388e-58</v>
+        <v>1.966700966750325e-05</v>
       </c>
       <c r="F30" t="n">
-        <v>1.27388473591233e-156</v>
+        <v>0.0002116124497006063</v>
       </c>
       <c r="G30" t="n">
-        <v>7.454187930306259e-247</v>
+        <v>0.0001979912489398914</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>UrbPopDensity_origin</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.1740846592035374</v>
+        <v>3.505558526247204e-06</v>
       </c>
       <c r="C31" t="n">
-        <v>0.08763143991762815</v>
+        <v>1.414026865750055e-05</v>
       </c>
       <c r="D31" t="n">
-        <v>0.07439548226640716</v>
+        <v>8.974813044886722e-06</v>
       </c>
       <c r="E31" t="n">
-        <v>5.541244530737199e-05</v>
+        <v>0.5767204939226125</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0001400933834312159</v>
+        <v>0.000762730274277124</v>
       </c>
       <c r="G31" t="n">
-        <v>0.000127393013346395</v>
+        <v>0.01290677501220189</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>UrbPopDensity_origin</t>
+          <t>DistSubcenter_origin</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>7.799139449538369e-06</v>
+        <v>0.07552101207786431</v>
       </c>
       <c r="C32" t="n">
-        <v>1.776510151502514e-05</v>
+        <v>-0.00808719941646569</v>
       </c>
       <c r="D32" t="n">
-        <v>1.118243405720689e-05</v>
+        <v>0.01982461909622276</v>
       </c>
       <c r="E32" t="n">
-        <v>0.214835544415242</v>
+        <v>0.03157994699459479</v>
       </c>
       <c r="F32" t="n">
-        <v>2.140473061397076e-05</v>
+        <v>0.5795655837024933</v>
       </c>
       <c r="G32" t="n">
-        <v>0.001816688073556589</v>
+        <v>0.1568308220494397</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>DistSubcenter_origin</t>
+          <t>DistCenter_origin</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.06766261940514524</v>
+        <v>-0.03664471499843359</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.007127874232226002</v>
+        <v>-0.08067779894129526</v>
       </c>
       <c r="D33" t="n">
-        <v>0.02847590979702386</v>
+        <v>-0.09469143865999205</v>
       </c>
       <c r="E33" t="n">
-        <v>0.05660590927571694</v>
+        <v>0.1781457177412193</v>
       </c>
       <c r="F33" t="n">
-        <v>0.6281026111594319</v>
+        <v>3.609938542946477e-11</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0420297397044339</v>
+        <v>7.423878299614383e-16</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>DistCenter_origin</t>
+          <t>UrbBuildDensity_origin</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.02029081725343374</v>
+        <v>3.848439747761391e-08</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.06926539053008292</v>
+        <v>3.855470699293217e-08</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.09366508438901271</v>
+        <v>3.099183926381647e-08</v>
       </c>
       <c r="E34" t="n">
-        <v>0.4617809937427163</v>
+        <v>0.02032929798197102</v>
       </c>
       <c r="F34" t="n">
-        <v>1.283769809124212e-08</v>
+        <v>0.0001102637673615557</v>
       </c>
       <c r="G34" t="n">
-        <v>1.732614984576396e-15</v>
+        <v>0.0003279009371662943</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_origin</t>
+          <t>IntersecDensity_origin</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4.403964781478962e-08</v>
+        <v>0.01848198115884609</v>
       </c>
       <c r="C35" t="n">
-        <v>3.829628185070099e-08</v>
+        <v>0.007860725763664009</v>
       </c>
       <c r="D35" t="n">
-        <v>3.030902279953782e-08</v>
+        <v>0.007887481120007821</v>
       </c>
       <c r="E35" t="n">
-        <v>0.007749774577418489</v>
+        <v>0.006920445974303915</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0001081251666626462</v>
+        <v>0.005754477466394478</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0004136898618773451</v>
+        <v>0.003330202459682518</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>IntersecDensity_origin</t>
+          <t>street_length_origin</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.02177390552579003</v>
+        <v>0.02483802119077695</v>
       </c>
       <c r="C36" t="n">
-        <v>0.009833470642394584</v>
+        <v>0.00449614622595578</v>
       </c>
       <c r="D36" t="n">
-        <v>0.008842030377948125</v>
+        <v>0.003077679391979017</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001590400375626116</v>
+        <v>0.01071007460799076</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0005618004004601663</v>
+        <v>0.2050802289412164</v>
       </c>
       <c r="G36" t="n">
-        <v>0.001019935306509199</v>
+        <v>0.3716309452820914</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>street_length_origin</t>
+          <t>bike_lane_share_origin</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.02656683972519425</v>
+        <v>3.542259768194628</v>
       </c>
       <c r="C37" t="n">
-        <v>0.006080692396020905</v>
+        <v>-0.07865467660845668</v>
       </c>
       <c r="D37" t="n">
-        <v>0.002321651448431714</v>
+        <v>0.178849098763365</v>
       </c>
       <c r="E37" t="n">
-        <v>0.006957796919936889</v>
+        <v>1.116861259634572e-08</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09050368680403799</v>
+        <v>0.8204153631714457</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5019427089262931</v>
+        <v>0.5580206831644219</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>bike_lane_share_origin</t>
+          <t>LU_UrbFab_origin</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3.17799836816551</v>
+        <v>-0.2960360324515741</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.1083306181589006</v>
+        <v>-0.4070744722003603</v>
       </c>
       <c r="D38" t="n">
-        <v>0.1741954974583592</v>
+        <v>-0.6493786536114191</v>
       </c>
       <c r="E38" t="n">
-        <v>3.216043823852751e-07</v>
+        <v>0.6097838136254307</v>
       </c>
       <c r="F38" t="n">
-        <v>0.753832304654721</v>
+        <v>0.1568326370322538</v>
       </c>
       <c r="G38" t="n">
-        <v>0.566392256372912</v>
+        <v>0.01216100268248584</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>LU_UrbFab_origin</t>
+          <t>LU_Comm_origin</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-0.7388756441836651</v>
+        <v>-0.03330317091354199</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.5163613558881184</v>
+        <v>-1.474066693751984</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.7289251178201896</v>
+        <v>-0.6152494475369973</v>
       </c>
       <c r="E39" t="n">
-        <v>0.2040123857602977</v>
+        <v>0.9661968790111641</v>
       </c>
       <c r="F39" t="n">
-        <v>0.07293110826037758</v>
+        <v>1.639847983910504e-05</v>
       </c>
       <c r="G39" t="n">
-        <v>0.005043329571147902</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>LU_Comm_origin</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>-0.3374243984336059</v>
-      </c>
-      <c r="C40" t="n">
-        <v>-1.469576602330308</v>
-      </c>
-      <c r="D40" t="n">
-        <v>-0.5390666661566464</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.6693075007437337</v>
-      </c>
-      <c r="F40" t="n">
-        <v>1.794594050841099e-05</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.09433488879816934</v>
+        <v>0.05568082750091486</v>
       </c>
     </row>
   </sheetData>
@@ -5120,7 +5008,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5454,7 +5342,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -5467,7 +5355,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown]</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
@@ -5480,7 +5368,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Education[T.Unknown]</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
@@ -5493,7 +5381,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
@@ -5506,7 +5394,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Trip_Distance</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
@@ -5519,7 +5407,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Trip_Distance</t>
+          <t>CarAvailable</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -5532,7 +5420,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CarAvailable</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
@@ -5545,7 +5433,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>UrbPopDensity_origin</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
@@ -5558,7 +5446,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>UrbPopDensity_origin</t>
+          <t>DistSubcenter_origin</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
@@ -5571,7 +5459,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>DistSubcenter_origin</t>
+          <t>DistCenter_origin</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
@@ -5584,7 +5472,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>DistCenter_origin</t>
+          <t>UrbBuildDensity_origin</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -5597,7 +5485,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_origin</t>
+          <t>IntersecDensity_origin</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
@@ -5610,7 +5498,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>IntersecDensity_origin</t>
+          <t>street_length_origin</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
@@ -5623,7 +5511,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>street_length_origin</t>
+          <t>bike_lane_share_origin</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
@@ -5636,7 +5524,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>bike_lane_share_origin</t>
+          <t>LU_UrbFab_origin</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
@@ -5649,7 +5537,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>LU_UrbFab_origin</t>
+          <t>LU_Comm_origin</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -5658,19 +5546,6 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>LU_Comm_origin</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5683,7 +5558,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5735,22 +5610,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-26.85847369567416</v>
+        <v>-23.9408130522913</v>
       </c>
       <c r="C2" t="n">
-        <v>2.298445286345232</v>
+        <v>2.161494761990845</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.612971332748792</v>
+        <v>-1.449855192322399</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9992006734037155</v>
+        <v>0.9985013587423196</v>
       </c>
       <c r="F2" t="n">
-        <v>0.008075717779758008</v>
+        <v>0.0133959372974077</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04238918267090044</v>
+        <v>0.06987528975815421</v>
       </c>
     </row>
     <row r="3">
@@ -5760,22 +5635,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.05770985582312897</v>
+        <v>0.07843315366560888</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.006350836154342898</v>
+        <v>0.006515481280297475</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.05462287494998468</v>
+        <v>-0.05789135129728112</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7305393298173655</v>
+        <v>0.6316480507944948</v>
       </c>
       <c r="F3" t="n">
-        <v>0.940981775294226</v>
+        <v>0.9392429444372846</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4908405078552216</v>
+        <v>0.4660278261407712</v>
       </c>
     </row>
     <row r="4">
@@ -5785,22 +5660,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.6011213940099087</v>
+        <v>-0.4620567601914508</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.6141032563149251</v>
+        <v>-0.5665695581913743</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.9737526539027033</v>
+        <v>-0.9239349591812795</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01559262687341819</v>
+        <v>0.05723875239139298</v>
       </c>
       <c r="F4" t="n">
-        <v>8.271242715244522e-07</v>
+        <v>4.14725305330804e-06</v>
       </c>
       <c r="G4" t="n">
-        <v>2.922005520061519e-14</v>
+        <v>2.995693167921474e-13</v>
       </c>
     </row>
     <row r="5">
@@ -5810,22 +5685,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.4990809627295696</v>
+        <v>-0.2786449903116707</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1156140151269422</v>
+        <v>0.0844978817388186</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.2710289580678502</v>
+        <v>-0.3074396191382867</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0265339922738677</v>
+        <v>0.1768172742633758</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2341310748583213</v>
+        <v>0.3818947599534412</v>
       </c>
       <c r="G5" t="n">
-        <v>0.003391384969467299</v>
+        <v>0.0008359919584475006</v>
       </c>
     </row>
     <row r="6">
@@ -5835,22 +5710,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.032008475410291</v>
+        <v>-0.1303751665573779</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.2919465661227728</v>
+        <v>-0.3056212720454624</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.3653319952672455</v>
+        <v>-0.4024329505898322</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8955263900989783</v>
+        <v>0.5828893907890691</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08378579880962593</v>
+        <v>0.06542063257897693</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0001371893463495626</v>
+        <v>2.275735143708339e-05</v>
       </c>
     </row>
     <row r="7">
@@ -5860,22 +5735,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.1985989047474965</v>
+        <v>-0.07788677425525384</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03070559062112094</v>
+        <v>0.06563669350631245</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.4323732449878019</v>
+        <v>-0.4735821448960835</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2926736564604726</v>
+        <v>0.6753789210582677</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7186854647971608</v>
+        <v>0.4409284893994709</v>
       </c>
       <c r="G7" t="n">
-        <v>8.156424013509619e-06</v>
+        <v>1.059449116073132e-06</v>
       </c>
     </row>
     <row r="8">
@@ -5885,22 +5760,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.183986409120498</v>
+        <v>1.026309437513735</v>
       </c>
       <c r="C8" t="n">
-        <v>1.007022879986967</v>
+        <v>0.96647131678033</v>
       </c>
       <c r="D8" t="n">
-        <v>1.513307151586924</v>
+        <v>1.414988923958641</v>
       </c>
       <c r="E8" t="n">
-        <v>8.422143090420399e-08</v>
+        <v>3.007412766553879e-06</v>
       </c>
       <c r="F8" t="n">
-        <v>1.232096998619737e-30</v>
+        <v>1.783643032047503e-28</v>
       </c>
       <c r="G8" t="n">
-        <v>2.188796939635576e-37</v>
+        <v>1.224982784746615e-33</v>
       </c>
     </row>
     <row r="9">
@@ -5910,22 +5785,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.162713555361811</v>
+        <v>1.384878410025362</v>
       </c>
       <c r="C9" t="n">
-        <v>1.828426383943213</v>
+        <v>1.777253168837766</v>
       </c>
       <c r="D9" t="n">
-        <v>2.504004347064808</v>
+        <v>2.396215206422188</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0006436795778461424</v>
+        <v>2.930380749274007e-05</v>
       </c>
       <c r="F9" t="n">
-        <v>4.719707555062833e-40</v>
+        <v>1.093790126490935e-37</v>
       </c>
       <c r="G9" t="n">
-        <v>6.453124878315424e-51</v>
+        <v>3.73073734569384e-47</v>
       </c>
     </row>
     <row r="10">
@@ -5935,22 +5810,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9681173537326893</v>
+        <v>0.9713821970667305</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6899200552169353</v>
+        <v>0.6903494314176423</v>
       </c>
       <c r="D10" t="n">
-        <v>1.092985605816411</v>
+        <v>0.9960387662053128</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0001168932705886069</v>
+        <v>8.566200936172397e-05</v>
       </c>
       <c r="F10" t="n">
-        <v>3.450883779183799e-12</v>
+        <v>3.608134044772277e-12</v>
       </c>
       <c r="G10" t="n">
-        <v>1.070052025391448e-15</v>
+        <v>1.737598060346803e-13</v>
       </c>
     </row>
     <row r="11">
@@ -5960,22 +5835,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.143323691324988</v>
+        <v>1.988267933107621</v>
       </c>
       <c r="C11" t="n">
-        <v>1.237402434730511</v>
+        <v>1.246122929637807</v>
       </c>
       <c r="D11" t="n">
-        <v>2.071971915421543</v>
+        <v>1.9882142212614</v>
       </c>
       <c r="E11" t="n">
-        <v>9.34799357800934e-22</v>
+        <v>3.056944064663997e-19</v>
       </c>
       <c r="F11" t="n">
-        <v>3.322497849016716e-29</v>
+        <v>2.220308191125861e-30</v>
       </c>
       <c r="G11" t="n">
-        <v>3.159835006251967e-65</v>
+        <v>3.50919216449092e-61</v>
       </c>
     </row>
     <row r="12">
@@ -5985,22 +5860,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-19.23803481636441</v>
+        <v>-125.2236395407569</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.3816049769499649</v>
+        <v>-0.9910600597865877</v>
       </c>
       <c r="D12" t="n">
-        <v>1.045860287570995</v>
+        <v>1.22033892462257</v>
       </c>
       <c r="E12" t="n">
-        <v>0.99905770910042</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3829598108330761</v>
+        <v>0.02799070522407432</v>
       </c>
       <c r="G12" t="n">
-        <v>0.006777383942404268</v>
+        <v>0.001403833957655865</v>
       </c>
     </row>
     <row r="13">
@@ -6010,22 +5885,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.08177193114679139</v>
+        <v>0.2504349301108229</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1592850827386501</v>
+        <v>0.2079339475938269</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4046352768616774</v>
+        <v>0.4150926670656454</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7231232265445573</v>
+        <v>0.2408539810652225</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1688354566360976</v>
+        <v>0.07224155017980904</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0002704521697900755</v>
+        <v>0.0001861115602303669</v>
       </c>
     </row>
     <row r="14">
@@ -6035,22 +5910,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.068598457107486</v>
+        <v>1.082907079685279</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8844806901529287</v>
+        <v>0.7476183872027612</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7475294289553036</v>
+        <v>0.6963498812634102</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001388362333534998</v>
+        <v>0.0006927880379766418</v>
       </c>
       <c r="F14" t="n">
-        <v>9.846511495014717e-09</v>
+        <v>8.440670465338841e-07</v>
       </c>
       <c r="G14" t="n">
-        <v>1.492366956010867e-05</v>
+        <v>6.374156603897666e-05</v>
       </c>
     </row>
     <row r="15">
@@ -6060,22 +5935,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-12.26527895499251</v>
+        <v>-18.73638737154763</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.2720734641152406</v>
+        <v>14.32308138878858</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.08701507912692232</v>
+        <v>-5.629752821274266</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9853470954735747</v>
+        <v>0.9991150911886881</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6792032078611661</v>
+        <v>3.154798582980997e-40</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8824156003124907</v>
+        <v>0.001471323791065122</v>
       </c>
     </row>
     <row r="16">
@@ -6085,22 +5960,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.3666502485872986</v>
+        <v>0.4190632909680116</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5688446764946247</v>
+        <v>0.5783296357589092</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7574325234430321</v>
+        <v>0.8000480717320743</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1352340914422602</v>
+        <v>0.07897013372929611</v>
       </c>
       <c r="F16" t="n">
-        <v>2.611276048211013e-06</v>
+        <v>1.364046682390841e-06</v>
       </c>
       <c r="G16" t="n">
-        <v>1.821105317347637e-11</v>
+        <v>1.508656225932917e-12</v>
       </c>
     </row>
     <row r="17">
@@ -6110,22 +5985,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.595483809173351</v>
+        <v>1.56758245759242</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4915478636928649</v>
+        <v>0.4428105447877335</v>
       </c>
       <c r="D17" t="n">
-        <v>1.338449394456456</v>
+        <v>1.244934562728161</v>
       </c>
       <c r="E17" t="n">
-        <v>3.85126122451241e-06</v>
+        <v>3.454961416902172e-07</v>
       </c>
       <c r="F17" t="n">
-        <v>0.03097849197678038</v>
+        <v>0.0436438305037288</v>
       </c>
       <c r="G17" t="n">
-        <v>1.539581724670582e-14</v>
+        <v>2.146215362515588e-13</v>
       </c>
     </row>
     <row r="18">
@@ -6135,22 +6010,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9101762254428403</v>
+        <v>0.5356284384875916</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6785302266619608</v>
+        <v>0.6171973523532307</v>
       </c>
       <c r="D18" t="n">
-        <v>1.533665754529797</v>
+        <v>1.410271672834478</v>
       </c>
       <c r="E18" t="n">
-        <v>0.02772568384631898</v>
+        <v>0.1893741280930472</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0004327461531571016</v>
+        <v>0.00121720062241021</v>
       </c>
       <c r="G18" t="n">
-        <v>4.278087894392221e-17</v>
+        <v>3.265566724866561e-15</v>
       </c>
     </row>
     <row r="19">
@@ -6160,22 +6035,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.245455472761848</v>
+        <v>1.032448726758955</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5697949647523467</v>
+        <v>0.561212158114513</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9664314899683519</v>
+        <v>1.165763417976791</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1272625372402542</v>
+        <v>0.1889439431434685</v>
       </c>
       <c r="F19" t="n">
-        <v>0.306982651984992</v>
+        <v>0.280014541682125</v>
       </c>
       <c r="G19" t="n">
-        <v>0.005774847180120294</v>
+        <v>0.0007385792197717327</v>
       </c>
     </row>
     <row r="20">
@@ -6185,22 +6060,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.4213958728254248</v>
+        <v>0.3273293411175162</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5660144972726073</v>
+        <v>0.661767872190923</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6148846631113861</v>
+        <v>0.7734750996083029</v>
       </c>
       <c r="E20" t="n">
-        <v>0.143575629576326</v>
+        <v>0.2834263012233571</v>
       </c>
       <c r="F20" t="n">
-        <v>1.773989412393506e-05</v>
+        <v>1.281943747463058e-06</v>
       </c>
       <c r="G20" t="n">
-        <v>4.661495553283528e-06</v>
+        <v>1.33841584105364e-08</v>
       </c>
     </row>
     <row r="21">
@@ -6210,22 +6085,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>21.24163953404041</v>
+        <v>19.4645424318384</v>
       </c>
       <c r="C21" t="n">
-        <v>1.461071284215854</v>
+        <v>1.507665659554608</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6259675025914749</v>
+        <v>0.8091796709772275</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9993678341998081</v>
+        <v>0.9987815630038734</v>
       </c>
       <c r="F21" t="n">
-        <v>0.02951313393455967</v>
+        <v>0.02629093619130086</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2820824291043265</v>
+        <v>0.1680869925458287</v>
       </c>
     </row>
     <row r="22">
@@ -6235,22 +6110,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.79220651662119</v>
+        <v>18.57878206594138</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.2027868614347952</v>
+        <v>-0.1224352018882224</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.630561309137257</v>
+        <v>-1.397171801704287</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9994109703150678</v>
+        <v>0.9988370095895949</v>
       </c>
       <c r="F22" t="n">
-        <v>0.7647870853288311</v>
+        <v>0.8580876986098541</v>
       </c>
       <c r="G22" t="n">
-        <v>0.005924868850642447</v>
+        <v>0.01935123104395394</v>
       </c>
     </row>
     <row r="23">
@@ -6260,447 +6135,422 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>21.20671051943494</v>
+        <v>19.56013068826146</v>
       </c>
       <c r="C23" t="n">
-        <v>1.284463253683407</v>
+        <v>1.16655994174106</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7474640625978153</v>
+        <v>0.7283473193712149</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9993688737110552</v>
+        <v>0.9987755793963451</v>
       </c>
       <c r="F23" t="n">
-        <v>0.05222487155401623</v>
+        <v>0.08086660385554047</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1910118813732602</v>
+        <v>0.2066792813064324</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>21.11754691944718</v>
+        <v>20.03867688736765</v>
       </c>
       <c r="C24" t="n">
-        <v>1.132210197006887</v>
+        <v>1.034448431775456</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5590270708514793</v>
+        <v>0.74652860984966</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9993715272805678</v>
+        <v>0.9987456234947717</v>
       </c>
       <c r="F24" t="n">
-        <v>0.08837393029721559</v>
+        <v>0.1211381608818508</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3301763462862604</v>
+        <v>0.1950687381691631</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown]</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>21.69972267349748</v>
+        <v>19.30940086784166</v>
       </c>
       <c r="C25" t="n">
-        <v>1.11268098231102</v>
+        <v>1.321648453978078</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6721390782868122</v>
+        <v>2.089835174520748</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9993542013334659</v>
+        <v>0.9987912745170271</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09175357672370642</v>
+        <v>0.08358212980235448</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2384030567767852</v>
+        <v>0.001733516819100374</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Education[T.Unknown]</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>21.95976114742679</v>
+        <v>-0.1791071564911107</v>
       </c>
       <c r="C26" t="n">
-        <v>1.613490503459567</v>
+        <v>0.274216528227486</v>
       </c>
       <c r="D26" t="n">
-        <v>1.918664584969775</v>
+        <v>0.5524100612569712</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9993464624116829</v>
+        <v>0.102726441244317</v>
       </c>
       <c r="F26" t="n">
-        <v>0.03347384606249654</v>
+        <v>9.326612903714293e-07</v>
       </c>
       <c r="G26" t="n">
-        <v>0.003877871170131921</v>
+        <v>1.384794725091125e-27</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.1874798201530123</v>
+        <v>-0.006294670732877296</v>
       </c>
       <c r="C27" t="n">
-        <v>0.282078005639108</v>
+        <v>-0.003798323625288464</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5501834412594252</v>
+        <v>-0.006726159455547642</v>
       </c>
       <c r="E27" t="n">
-        <v>0.09722474360826705</v>
+        <v>0.2451572856116496</v>
       </c>
       <c r="F27" t="n">
-        <v>5.034274989875311e-07</v>
+        <v>0.229319433940385</v>
       </c>
       <c r="G27" t="n">
-        <v>4.121806005179058e-27</v>
+        <v>0.008790447291808114</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Trip_Distance</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.005302802583888072</v>
+        <v>-0.0002700338726524509</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.00551838414279482</v>
+        <v>-0.002934793683427366</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.005546383484322231</v>
+        <v>0.0001310962652426887</v>
       </c>
       <c r="E28" t="n">
-        <v>0.3455527078763015</v>
+        <v>4.06485690271701e-23</v>
       </c>
       <c r="F28" t="n">
-        <v>0.08353945181455175</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03057047116641562</v>
+        <v>4.130735255556e-110</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Trip_Distance</t>
+          <t>CarAvailable</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.0004511868701345429</v>
+        <v>-2.186554685640518</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.002935356824231138</v>
+        <v>-2.517168936442676</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0001315840400687088</v>
+        <v>-2.845841428865056</v>
       </c>
       <c r="E29" t="n">
-        <v>3.281785696654549e-35</v>
+        <v>4.45612169258192e-57</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>2.334165447306155e-155</v>
       </c>
       <c r="G29" t="n">
-        <v>1.964568449246116e-110</v>
+        <v>2.136108174281999e-248</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CarAvailable</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-2.269852219737461</v>
+        <v>0.1645186655691238</v>
       </c>
       <c r="C30" t="n">
-        <v>-2.533117130301623</v>
+        <v>0.08405499254418602</v>
       </c>
       <c r="D30" t="n">
-        <v>-2.907700855819142</v>
+        <v>0.06737398498170565</v>
       </c>
       <c r="E30" t="n">
-        <v>2.969612984341054e-58</v>
+        <v>6.870323824996149e-05</v>
       </c>
       <c r="F30" t="n">
-        <v>3.920210672243327e-155</v>
+        <v>0.0002608858036489465</v>
       </c>
       <c r="G30" t="n">
-        <v>2.395075735205938e-252</v>
+        <v>0.0005493312952439523</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>UrbPopDensity_origin</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.1667631698623126</v>
+        <v>3.89530888585261e-06</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1102977124869506</v>
+        <v>1.646344859428108e-05</v>
       </c>
       <c r="D31" t="n">
-        <v>0.09346612642854617</v>
+        <v>8.097111431029047e-06</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0001257604017130084</v>
+        <v>0.5191291594912233</v>
       </c>
       <c r="F31" t="n">
-        <v>1.822531901343509e-06</v>
+        <v>7.356192125814789e-05</v>
       </c>
       <c r="G31" t="n">
-        <v>1.93753851787014e-06</v>
+        <v>0.02465758574625926</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>UrbPopDensity_origin</t>
+          <t>DistSubcenter_origin</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.094319553024377e-05</v>
+        <v>0.02479888517258039</v>
       </c>
       <c r="C32" t="n">
-        <v>1.83915835237572e-05</v>
+        <v>-0.01161238828250214</v>
       </c>
       <c r="D32" t="n">
-        <v>1.245667341699483e-05</v>
+        <v>0.01731174683533579</v>
       </c>
       <c r="E32" t="n">
-        <v>0.08132239268497986</v>
+        <v>0.4701148729462495</v>
       </c>
       <c r="F32" t="n">
-        <v>1.249595143816751e-05</v>
+        <v>0.4254558964347288</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0005559392687429536</v>
+        <v>0.2162024382461948</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>DistSubcenter_origin</t>
+          <t>DistCenter_origin</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.04070535189535148</v>
+        <v>-0.05167675751959679</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.01617489890556395</v>
+        <v>-0.07017817438691458</v>
       </c>
       <c r="D33" t="n">
-        <v>0.01861940769691173</v>
+        <v>-0.09668612627543349</v>
       </c>
       <c r="E33" t="n">
-        <v>0.2449311342861753</v>
+        <v>0.05549391897511769</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2691859952054121</v>
+        <v>8.03205845547336e-09</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1839644129864272</v>
+        <v>1.439990371857421e-16</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>DistCenter_origin</t>
+          <t>UrbBuildDensity_origin</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.02208520336015496</v>
+        <v>4.354492386589348e-08</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.07079720142137867</v>
+        <v>3.583025291950131e-08</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.09559202651714215</v>
+        <v>3.415503840421393e-08</v>
       </c>
       <c r="E34" t="n">
-        <v>0.4169668074432464</v>
+        <v>0.006533343754010064</v>
       </c>
       <c r="F34" t="n">
-        <v>5.420655724750279e-09</v>
+        <v>0.0002635058799281856</v>
       </c>
       <c r="G34" t="n">
-        <v>5.506501706759203e-16</v>
+        <v>7.344238533101867e-05</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_origin</t>
+          <t>IntersecDensity_origin</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4.286466966224203e-08</v>
+        <v>0.01171023477696055</v>
       </c>
       <c r="C35" t="n">
-        <v>3.43534695799742e-08</v>
+        <v>0.01112044904568428</v>
       </c>
       <c r="D35" t="n">
-        <v>2.821197305979609e-08</v>
+        <v>0.007004090958455376</v>
       </c>
       <c r="E35" t="n">
-        <v>0.009432787676661249</v>
+        <v>0.07685424449683258</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0005806164887600995</v>
+        <v>8.995093994429754e-05</v>
       </c>
       <c r="G35" t="n">
-        <v>0.001091678030062482</v>
+        <v>0.009139701087830774</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>IntersecDensity_origin</t>
+          <t>street_length_origin</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.01828763218261008</v>
+        <v>0.01625176232714742</v>
       </c>
       <c r="C36" t="n">
-        <v>0.009227604228540534</v>
+        <v>0.006986312231842029</v>
       </c>
       <c r="D36" t="n">
-        <v>0.008068727973741195</v>
+        <v>0.0002213615730496566</v>
       </c>
       <c r="E36" t="n">
-        <v>0.007331531504232928</v>
+        <v>0.08184724273578806</v>
       </c>
       <c r="F36" t="n">
-        <v>0.001140868727941253</v>
+        <v>0.04809393508444687</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0025962160908562</v>
+        <v>0.9489904889008911</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>street_length_origin</t>
+          <t>bike_lane_share_origin</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.02432348011975535</v>
+        <v>2.943821620662477</v>
       </c>
       <c r="C37" t="n">
-        <v>0.006511142948002037</v>
+        <v>-0.2409893151277624</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0002746414385419669</v>
+        <v>0.0645305653761655</v>
       </c>
       <c r="E37" t="n">
-        <v>0.01153811765191902</v>
+        <v>6.520531142912251e-07</v>
       </c>
       <c r="F37" t="n">
-        <v>0.06716777054466758</v>
+        <v>0.4847457612848932</v>
       </c>
       <c r="G37" t="n">
-        <v>0.936752962449024</v>
+        <v>0.8323636490240347</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>bike_lane_share_origin</t>
+          <t>LU_UrbFab_origin</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.983041675237142</v>
+        <v>-0.0508753275260396</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.08032471211420142</v>
+        <v>-0.5282484544552294</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.2157817097586664</v>
+        <v>-0.5180401323645868</v>
       </c>
       <c r="E38" t="n">
-        <v>1.120951699274827e-06</v>
+        <v>0.9280874623008999</v>
       </c>
       <c r="F38" t="n">
-        <v>0.8170260149487608</v>
+        <v>0.06569033679756682</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4811543075602608</v>
+        <v>0.04645648902214206</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>LU_UrbFab_origin</t>
+          <t>LU_Comm_origin</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-0.2017377404118947</v>
+        <v>0.7047524505845799</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.5537605972273963</v>
+        <v>-1.347136954225507</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.5660329113224118</v>
+        <v>-0.3417975928553582</v>
       </c>
       <c r="E39" t="n">
-        <v>0.7329038229943767</v>
+        <v>0.3435341415241856</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0561774657392635</v>
+        <v>7.125796611342293e-05</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02925898329836576</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>LU_Comm_origin</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>0.3724321670175801</v>
-      </c>
-      <c r="C40" t="n">
-        <v>-1.544596076871996</v>
-      </c>
-      <c r="D40" t="n">
-        <v>-0.41529189733107</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.6360610742202166</v>
-      </c>
-      <c r="F40" t="n">
-        <v>7.151381848401319e-06</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.1990727754045731</v>
+        <v>0.2872008618231288</v>
       </c>
     </row>
   </sheetData>
@@ -6714,7 +6564,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6766,22 +6616,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-18.93762562570013</v>
+        <v>-30.38409965129685</v>
       </c>
       <c r="C2" t="n">
-        <v>2.146129102520306</v>
+        <v>2.286904944226386</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.319420561349264</v>
+        <v>-1.594880057594439</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9765758828318845</v>
+        <v>0.9998449443526292</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01390503784080218</v>
+        <v>0.008383835506208571</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1071542449161351</v>
+        <v>0.04469443533195471</v>
       </c>
     </row>
     <row r="3">
@@ -6791,22 +6641,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.0632682036901958</v>
+        <v>-0.05847491369027254</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.01403149868843094</v>
+        <v>-0.007372539931019384</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.0752926431542872</v>
+        <v>-0.05545343373109064</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7091203098368725</v>
+        <v>0.7271462840494138</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8704206537403872</v>
+        <v>0.9314861064200174</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3449396607622354</v>
+        <v>0.4842507986497046</v>
       </c>
     </row>
     <row r="4">
@@ -6816,22 +6666,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.5936680071316351</v>
+        <v>-0.6012248412576744</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.6003464086646543</v>
+        <v>-0.6160631330229936</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.8256392099219965</v>
+        <v>-0.9760157542537276</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01841981706418297</v>
+        <v>0.01558237753186051</v>
       </c>
       <c r="F4" t="n">
-        <v>1.735814019000501e-06</v>
+        <v>7.6239625062993e-07</v>
       </c>
       <c r="G4" t="n">
-        <v>6.791010693192009e-11</v>
+        <v>2.582619497270039e-14</v>
       </c>
     </row>
     <row r="5">
@@ -6841,22 +6691,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.4583057872991917</v>
+        <v>-0.4978112868071842</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0570790356685193</v>
+        <v>0.1158746235542115</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.2524333450437082</v>
+        <v>-0.2700570473610253</v>
       </c>
       <c r="E5" t="n">
-        <v>0.03944379436062823</v>
+        <v>0.02693018024963795</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5608845171151722</v>
+        <v>0.2332235649066261</v>
       </c>
       <c r="G5" t="n">
-        <v>0.005943502118209505</v>
+        <v>0.003502440039233746</v>
       </c>
     </row>
     <row r="6">
@@ -6866,22 +6716,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.03760554736565591</v>
+        <v>-0.02788292630365515</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.2491651036886821</v>
+        <v>-0.287368768870563</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.3878308451374772</v>
+        <v>-0.3579947398436809</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8796720437226619</v>
+        <v>0.9088743656352201</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1418264338109366</v>
+        <v>0.08874163001472891</v>
       </c>
       <c r="G6" t="n">
-        <v>5.183275901860944e-05</v>
+        <v>0.0001835282502348961</v>
       </c>
     </row>
     <row r="7">
@@ -6891,22 +6741,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.1387298914157015</v>
+        <v>-0.198291450274897</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01739744467075091</v>
+        <v>0.02994371391056246</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.5233915150136357</v>
+        <v>-0.4335659558826457</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4601670125866323</v>
+        <v>0.2933084765142904</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8392571286132751</v>
+        <v>0.7252743163984038</v>
       </c>
       <c r="G7" t="n">
-        <v>8.75491576119688e-08</v>
+        <v>7.678998819032334e-06</v>
       </c>
     </row>
     <row r="8">
@@ -6916,22 +6766,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.294657542228702</v>
+        <v>1.184976247040773</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9919619957090821</v>
+        <v>1.009535875294844</v>
       </c>
       <c r="D8" t="n">
-        <v>1.46120529647905</v>
+        <v>1.516153627898061</v>
       </c>
       <c r="E8" t="n">
-        <v>1.0538755203155e-08</v>
+        <v>8.208085034151401e-08</v>
       </c>
       <c r="F8" t="n">
-        <v>6.22158515081024e-30</v>
+        <v>8.38167649543221e-31</v>
       </c>
       <c r="G8" t="n">
-        <v>3.77743905945378e-35</v>
+        <v>1.60235980913959e-37</v>
       </c>
     </row>
     <row r="9">
@@ -6941,22 +6791,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.258348345602413</v>
+        <v>1.164932554452389</v>
       </c>
       <c r="C9" t="n">
-        <v>1.821891858226908</v>
+        <v>1.831951253522531</v>
       </c>
       <c r="D9" t="n">
-        <v>2.480486090206313</v>
+        <v>2.509665798957063</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0002284854856841309</v>
+        <v>0.0006272780540595219</v>
       </c>
       <c r="F9" t="n">
-        <v>4.510840480308098e-39</v>
+        <v>3.307594647663463e-40</v>
       </c>
       <c r="G9" t="n">
-        <v>3.610309165214434e-50</v>
+        <v>4.026277437937794e-51</v>
       </c>
     </row>
     <row r="10">
@@ -6966,22 +6816,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.123984293731686</v>
+        <v>0.9697689646242472</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7258166646357406</v>
+        <v>0.6933218209710516</v>
       </c>
       <c r="D10" t="n">
-        <v>1.11183117454144</v>
+        <v>1.096348272976381</v>
       </c>
       <c r="E10" t="n">
-        <v>1.176247318750028e-05</v>
+        <v>0.0001137200398827368</v>
       </c>
       <c r="F10" t="n">
-        <v>4.759918218371724e-13</v>
+        <v>2.602504574963383e-12</v>
       </c>
       <c r="G10" t="n">
-        <v>4.242895477727986e-16</v>
+        <v>8.722219512907781e-16</v>
       </c>
     </row>
     <row r="11">
@@ -6991,22 +6841,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.291454723545124</v>
+        <v>2.144732230103167</v>
       </c>
       <c r="C11" t="n">
-        <v>1.264125981417734</v>
+        <v>1.2402619000442</v>
       </c>
       <c r="D11" t="n">
-        <v>2.062373757838554</v>
+        <v>2.073038398082965</v>
       </c>
       <c r="E11" t="n">
-        <v>3.391955202134641e-23</v>
+        <v>8.786016387659823e-22</v>
       </c>
       <c r="F11" t="n">
-        <v>2.541166845771566e-30</v>
+        <v>2.331123527728378e-29</v>
       </c>
       <c r="G11" t="n">
-        <v>1.164948528207916e-63</v>
+        <v>2.535614610145021e-65</v>
       </c>
     </row>
     <row r="12">
@@ -7016,22 +6866,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-18.89677744797006</v>
+        <v>-19.14980479349849</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.6362766451094473</v>
+        <v>-0.3738098302178366</v>
       </c>
       <c r="D12" t="n">
-        <v>1.018739201958906</v>
+        <v>1.052984512195053</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9989523870685034</v>
+        <v>0.9990223646014139</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1560577132908586</v>
+        <v>0.3927722608075159</v>
       </c>
       <c r="G12" t="n">
-        <v>0.008118037156966344</v>
+        <v>0.006246495823979353</v>
       </c>
     </row>
     <row r="13">
@@ -7041,22 +6891,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1705519977746462</v>
+        <v>0.07956082735366454</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1971356628845933</v>
+        <v>0.1555533562801136</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2754713790126568</v>
+        <v>0.4033462709655796</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4381539399687751</v>
+        <v>0.7303002672655927</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08707010931354907</v>
+        <v>0.1790111762633633</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01300152382272809</v>
+        <v>0.0002818573690544328</v>
       </c>
     </row>
     <row r="14">
@@ -7066,22 +6916,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9764330674729667</v>
+        <v>1.067717628417285</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8477828634834075</v>
+        <v>0.886192647073807</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8242675832787963</v>
+        <v>0.7455869066369788</v>
       </c>
       <c r="E14" t="n">
-        <v>0.004451180506631505</v>
+        <v>0.001401485587672029</v>
       </c>
       <c r="F14" t="n">
-        <v>1.858571285627315e-08</v>
+        <v>8.89855694709086e-09</v>
       </c>
       <c r="G14" t="n">
-        <v>1.105384631332386e-06</v>
+        <v>1.560097353060695e-05</v>
       </c>
     </row>
     <row r="15">
@@ -7091,22 +6941,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-15.23728624498757</v>
+        <v>-13.73917778025377</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03138903305967872</v>
+        <v>-0.2377710499416261</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2617617128726347</v>
+        <v>-0.05506533409391738</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9963246397595829</v>
+        <v>0.9922310536825695</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9605722906471166</v>
+        <v>0.717403809182126</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6404861951255396</v>
+        <v>0.9254257596857487</v>
       </c>
     </row>
     <row r="16">
@@ -7116,22 +6966,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.232834370156418</v>
+        <v>0.3655337984195348</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6011096813915392</v>
+        <v>0.5658159767332365</v>
       </c>
       <c r="D16" t="n">
-        <v>0.801583098565586</v>
+        <v>0.7554867052618233</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3449699189751287</v>
+        <v>0.1364051471471883</v>
       </c>
       <c r="F16" t="n">
-        <v>6.102572804634577e-07</v>
+        <v>2.91623493004552e-06</v>
       </c>
       <c r="G16" t="n">
-        <v>1.150713105138651e-12</v>
+        <v>2.046915125436283e-11</v>
       </c>
     </row>
     <row r="17">
@@ -7141,22 +6991,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.843574248643048</v>
+        <v>1.569046674354639</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3475741074611923</v>
+        <v>0.4359175272636177</v>
       </c>
       <c r="D17" t="n">
-        <v>1.251346727947042</v>
+        <v>1.264986690265272</v>
       </c>
       <c r="E17" t="n">
-        <v>5.856577201059513e-08</v>
+        <v>1.723357816408533e-06</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1244476944887224</v>
+        <v>0.05099412146042085</v>
       </c>
       <c r="G17" t="n">
-        <v>6.536582380501086e-13</v>
+        <v>1.107768019077011e-13</v>
       </c>
     </row>
     <row r="18">
@@ -7166,22 +7016,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.082740983492365</v>
+        <v>0.9290843844139619</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6297515657492314</v>
+        <v>0.708277115168644</v>
       </c>
       <c r="D18" t="n">
-        <v>1.493987543363906</v>
+        <v>1.570869509876404</v>
       </c>
       <c r="E18" t="n">
-        <v>0.009071438914862366</v>
+        <v>0.0237056281340166</v>
       </c>
       <c r="F18" t="n">
-        <v>0.001190531384607633</v>
+        <v>0.0002142948613361205</v>
       </c>
       <c r="G18" t="n">
-        <v>1.522639776194954e-16</v>
+        <v>4.705418829991739e-18</v>
       </c>
     </row>
     <row r="19">
@@ -7191,22 +7041,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.419648403628979</v>
+        <v>1.277211133086441</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4834322732175267</v>
+        <v>0.6210131712595489</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9442858698648068</v>
+        <v>1.027314957935069</v>
       </c>
       <c r="E19" t="n">
-        <v>0.08154672941513912</v>
+        <v>0.1164395893089998</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3502103943356535</v>
+        <v>0.2648479001607542</v>
       </c>
       <c r="G19" t="n">
-        <v>0.005622979597288032</v>
+        <v>0.003238206768535616</v>
       </c>
     </row>
     <row r="20">
@@ -7216,22 +7066,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.4460983945316163</v>
+        <v>0.4233472834598104</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5652011055219011</v>
+        <v>0.5681044353115803</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6613016677321056</v>
+        <v>0.6156215391790634</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1229720153314632</v>
+        <v>0.1416879255896972</v>
       </c>
       <c r="F20" t="n">
-        <v>2.208747873522966e-05</v>
+        <v>1.639067483335035e-05</v>
       </c>
       <c r="G20" t="n">
-        <v>7.575967409370145e-07</v>
+        <v>4.497909876201715e-06</v>
       </c>
     </row>
     <row r="21">
@@ -7241,22 +7091,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>13.94161324845217</v>
+        <v>24.75704998691185</v>
       </c>
       <c r="C21" t="n">
-        <v>1.740966727751073</v>
+        <v>1.446210379249562</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8871849955200828</v>
+        <v>0.601216922784812</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9827543166409091</v>
+        <v>0.999873660221463</v>
       </c>
       <c r="F21" t="n">
-        <v>0.009856795347491185</v>
+        <v>0.03115348826472005</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1468123655666009</v>
+        <v>0.3012497391314571</v>
       </c>
     </row>
     <row r="22">
@@ -7266,22 +7116,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>12.45282047393458</v>
+        <v>23.30291263144633</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.02790886118573158</v>
+        <v>-0.2242348632319315</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.50463023945637</v>
+        <v>-1.662616299356054</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9845957020401538</v>
+        <v>0.9998810809517257</v>
       </c>
       <c r="F22" t="n">
-        <v>0.967311097121202</v>
+        <v>0.7406572488084765</v>
       </c>
       <c r="G22" t="n">
-        <v>0.01546192555667494</v>
+        <v>0.00498212644185556</v>
       </c>
     </row>
     <row r="23">
@@ -7291,447 +7141,1428 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>13.74101257418911</v>
+        <v>24.69974001754413</v>
       </c>
       <c r="C23" t="n">
-        <v>1.366749552669422</v>
+        <v>1.233604562915213</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8420126731444527</v>
+        <v>0.6839452095433491</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9830024190615375</v>
+        <v>0.9998739526847726</v>
       </c>
       <c r="F23" t="n">
-        <v>0.03974113704449059</v>
+        <v>0.06189286721297017</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1617497242763422</v>
+        <v>0.2306818290259629</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>13.72386298967303</v>
+        <v>25.22455372270601</v>
       </c>
       <c r="C24" t="n">
-        <v>1.25541277588808</v>
+        <v>1.113843964787103</v>
       </c>
       <c r="D24" t="n">
-        <v>0.588715589126238</v>
+        <v>0.6738550815649997</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9830236302108691</v>
+        <v>0.9998712744639527</v>
       </c>
       <c r="F24" t="n">
-        <v>0.06000466818339042</v>
+        <v>0.09138569482943031</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3300059863885655</v>
+        <v>0.2370466948741937</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown]</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>14.42148396477287</v>
+        <v>25.48012332273609</v>
       </c>
       <c r="C25" t="n">
-        <v>1.242130000075621</v>
+        <v>1.607192361125959</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7745832964188203</v>
+        <v>1.910827236953471</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9821608150564858</v>
+        <v>0.9998699702453017</v>
       </c>
       <c r="F25" t="n">
-        <v>0.06095004956544448</v>
+        <v>0.03413809260248606</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1970288660076691</v>
+        <v>0.004013997400582143</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Education[T.Unknown]</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>14.682709462524</v>
+        <v>-0.1878049535167119</v>
       </c>
       <c r="C26" t="n">
-        <v>1.828616841619508</v>
+        <v>0.2816930095451587</v>
       </c>
       <c r="D26" t="n">
-        <v>2.226967433078802</v>
+        <v>0.5485226943325779</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9818377509235372</v>
+        <v>0.09662791683333695</v>
       </c>
       <c r="F26" t="n">
-        <v>0.01597999898787089</v>
+        <v>5.204286719951945e-07</v>
       </c>
       <c r="G26" t="n">
-        <v>0.00127520749223859</v>
+        <v>5.600727752151029e-27</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.2175528138403343</v>
+        <v>-0.005082474869060625</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2218647856767341</v>
+        <v>-0.005160375404324271</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5328396655413274</v>
+        <v>-0.005208340775236821</v>
       </c>
       <c r="E27" t="n">
-        <v>0.05549955718148969</v>
+        <v>0.365053048425878</v>
       </c>
       <c r="F27" t="n">
-        <v>9.026715883060902e-05</v>
+        <v>0.1043981376398143</v>
       </c>
       <c r="G27" t="n">
-        <v>1.823619032918502e-25</v>
+        <v>0.04179457819689134</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Trip_Distance</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.001984725251694511</v>
+        <v>-0.0004513490861675853</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.005844990733608375</v>
+        <v>-0.002935799777920257</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.007825684921431144</v>
+        <v>0.000131265340066063</v>
       </c>
       <c r="E28" t="n">
-        <v>0.72437542616539</v>
+        <v>3.083748403567933e-35</v>
       </c>
       <c r="F28" t="n">
-        <v>0.06677583432796409</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.002200280379299508</v>
+        <v>4.428623151783244e-110</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Trip_Distance</t>
+          <t>CarAvailable</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.0004645320462553355</v>
+        <v>-2.273435522204993</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.002956484018579057</v>
+        <v>-2.53814554534</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0001319636758240714</v>
+        <v>-2.912899031026843</v>
       </c>
       <c r="E29" t="n">
-        <v>2.937204759144699e-36</v>
+        <v>1.755340739388856e-58</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>6.6588311883009e-156</v>
       </c>
       <c r="G29" t="n">
-        <v>1.349329893289073e-110</v>
+        <v>1.849276375827084e-253</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CarAvailable</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-2.327131960847313</v>
+        <v>0.1678099768604071</v>
       </c>
       <c r="C30" t="n">
-        <v>-2.523264048546973</v>
+        <v>0.1124392585831188</v>
       </c>
       <c r="D30" t="n">
-        <v>-2.874535867860232</v>
+        <v>0.09557111980470979</v>
       </c>
       <c r="E30" t="n">
-        <v>6.445498151170596e-61</v>
+        <v>0.000110251598930538</v>
       </c>
       <c r="F30" t="n">
-        <v>3.59298709806811e-153</v>
+        <v>1.074497991418791e-06</v>
       </c>
       <c r="G30" t="n">
-        <v>1.295236359326819e-250</v>
+        <v>1.092176276615934e-06</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>UrbPopDensity_origin</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.1635922482774665</v>
+        <v>1.087501957671357e-05</v>
       </c>
       <c r="C31" t="n">
-        <v>0.09437109692362448</v>
+        <v>1.830127489035604e-05</v>
       </c>
       <c r="D31" t="n">
-        <v>0.06372157892729828</v>
+        <v>1.233402725611081e-05</v>
       </c>
       <c r="E31" t="n">
-        <v>0.000163967004332819</v>
+        <v>0.08317037783871224</v>
       </c>
       <c r="F31" t="n">
-        <v>4.556241754577151e-05</v>
+        <v>1.374612471233208e-05</v>
       </c>
       <c r="G31" t="n">
-        <v>0.001087612574238083</v>
+        <v>0.0006256881633251307</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>UrbPopDensity_origin</t>
+          <t>DistSubcenter_origin</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>6.779813615790187e-06</v>
+        <v>0.04059719442578745</v>
       </c>
       <c r="C32" t="n">
-        <v>1.718301359450407e-05</v>
+        <v>-0.01612413075039073</v>
       </c>
       <c r="D32" t="n">
-        <v>1.131655030664679e-05</v>
+        <v>0.01823570669367447</v>
       </c>
       <c r="E32" t="n">
-        <v>0.2758216294420365</v>
+        <v>0.2461810215611551</v>
       </c>
       <c r="F32" t="n">
-        <v>4.308162763155524e-05</v>
+        <v>0.2705085243564904</v>
       </c>
       <c r="G32" t="n">
-        <v>0.00165733056616621</v>
+        <v>0.19305485914155</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>DistSubcenter_origin</t>
+          <t>DistCenter_origin</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.06573385215740898</v>
+        <v>-0.0219084000291157</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.01459122805964884</v>
+        <v>-0.07044420744691604</v>
       </c>
       <c r="D33" t="n">
-        <v>0.01258553423316161</v>
+        <v>-0.09533175743816613</v>
       </c>
       <c r="E33" t="n">
-        <v>0.06385996203998029</v>
+        <v>0.4206750803259897</v>
       </c>
       <c r="F33" t="n">
-        <v>0.3249704560854809</v>
+        <v>6.314035272902303e-09</v>
       </c>
       <c r="G33" t="n">
-        <v>0.3730481793087734</v>
+        <v>6.339569314780853e-16</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>DistCenter_origin</t>
+          <t>UrbBuildDensity_origin</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.04398546659671475</v>
+        <v>4.283303684919245e-08</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.06955204163175814</v>
+        <v>3.434234430124974e-08</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.09006700184078396</v>
+        <v>2.809388000023377e-08</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1113743335931609</v>
+        <v>0.00946765980680354</v>
       </c>
       <c r="F34" t="n">
-        <v>1.153908126086341e-08</v>
+        <v>0.0005811814558128131</v>
       </c>
       <c r="G34" t="n">
-        <v>2.344580752418203e-14</v>
+        <v>0.001136997222581614</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_origin</t>
+          <t>IntersecDensity_origin</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4.701253310536312e-08</v>
+        <v>0.01824463706577891</v>
       </c>
       <c r="C35" t="n">
-        <v>4.514401004876336e-08</v>
+        <v>0.009187063178256207</v>
       </c>
       <c r="D35" t="n">
-        <v>3.262680088956443e-08</v>
+        <v>0.007896534981224603</v>
       </c>
       <c r="E35" t="n">
-        <v>0.004563125901255738</v>
+        <v>0.00744797738179411</v>
       </c>
       <c r="F35" t="n">
-        <v>6.585977540530666e-06</v>
+        <v>0.001199588030770128</v>
       </c>
       <c r="G35" t="n">
-        <v>0.000171117715820053</v>
+        <v>0.003182848656406952</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>IntersecDensity_origin</t>
+          <t>street_length_origin</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.01479723534637999</v>
+        <v>0.02422585947389984</v>
       </c>
       <c r="C36" t="n">
-        <v>0.008649227227750831</v>
+        <v>0.006383356627303364</v>
       </c>
       <c r="D36" t="n">
-        <v>0.006333626624703977</v>
+        <v>2.217748068837004e-05</v>
       </c>
       <c r="E36" t="n">
-        <v>0.03182664124869763</v>
+        <v>0.0118509944171896</v>
       </c>
       <c r="F36" t="n">
-        <v>0.002615201381575886</v>
+        <v>0.07269374782665025</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01924996670693076</v>
+        <v>0.9948848811037354</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>street_length_origin</t>
+          <t>bike_lane_share_origin</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.02104491426318555</v>
+        <v>2.991005449998934</v>
       </c>
       <c r="C37" t="n">
-        <v>0.006266402645274543</v>
+        <v>-0.07102940770430061</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.0009826457080279831</v>
+        <v>-0.2047363692386162</v>
       </c>
       <c r="E37" t="n">
-        <v>0.03141620625884594</v>
+        <v>1.045349777902699e-06</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08034023411733192</v>
+        <v>0.8378449715946092</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7775217843818666</v>
+        <v>0.5036663832505131</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>bike_lane_share_origin</t>
+          <t>LU_UrbFab_origin</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.875986245165911</v>
+        <v>-0.2000039863284476</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.1964130890058725</v>
+        <v>-0.5491540198991705</v>
       </c>
       <c r="D38" t="n">
-        <v>0.1543659449503819</v>
+        <v>-0.5608589975755224</v>
       </c>
       <c r="E38" t="n">
-        <v>2.86971515301643e-06</v>
+        <v>0.7350942221536807</v>
       </c>
       <c r="F38" t="n">
-        <v>0.5710648490064827</v>
+        <v>0.05820852141795373</v>
       </c>
       <c r="G38" t="n">
-        <v>0.6131586932736933</v>
+        <v>0.03071024677440892</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
+          <t>LU_Comm_origin</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.3875011040352028</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-1.521995175837825</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-0.3951809758157377</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.6222628370320904</v>
+      </c>
+      <c r="F39" t="n">
+        <v>9.511218372110112e-06</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.2213471328266348</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>param</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>bike</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>walk</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>bike_p</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>walk_p</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>transit_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Intercept</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-42.45757220457461</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.135335166607821</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-1.294143126025434</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9999968594594826</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.01435627623369298</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.1138414867553431</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Trip_Time[T.Daytime Off-Peak]</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-0.06417461158402904</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.01477006996047917</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-0.07558353092957509</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7052400040543376</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.8636358725814113</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.3429757325859343</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Trip_Time[T.Evening]</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.5925009829571003</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-0.6021368313037161</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-0.8280005746948589</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0186349195115741</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.611008107033836e-06</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6.060664063079649e-11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Trip_Time[T.Lunch]</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.4551576218772016</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.05850714592765092</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.2507764503297069</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.04080255580289123</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.5512459161143057</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.006268501989625912</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Trip_Time[T.Nighttime Off-Peak]</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.03783012789446485</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.2484142451207017</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.3800231264568642</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8788501275387217</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.1429854126690468</v>
+      </c>
+      <c r="G6" t="n">
+        <v>7.149288233617205e-05</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Trip_Time[T.PM Rush]</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.1377728352360464</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.01658093923001569</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.5250905272597536</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.4631670578840128</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.8466520448512923</v>
+      </c>
+      <c r="G7" t="n">
+        <v>7.892408976467098e-08</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Trip_Purpose_Agg[T.Home↔Leisure]</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1.2947436154236</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9938094378030555</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.463864791252714</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.047505612007473e-08</v>
+      </c>
+      <c r="F8" t="n">
+        <v>4.695899901909643e-30</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2.785319598486595e-35</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Trip_Purpose_Agg[T.Home↔School]</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1.256503802926053</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.824687666087393</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.486233623367462</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0002311265427665322</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3.468690520154723e-39</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2.268215942125727e-50</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Trip_Purpose_Agg[T.Home↔Shopping]</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1.124524493483157</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7284023347363734</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.115764794575233</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.161948705559119e-05</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3.781280552019293e-13</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3.305851396226905e-16</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Trip_Purpose_Agg[T.Home↔Work]</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2.291756035343806</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.265748376654257</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2.064037098808616</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3.355200831322129e-23</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2.088672222663895e-30</v>
+      </c>
+      <c r="G11" t="n">
+        <v>8.064666818971756e-64</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Trip_Purpose_Agg[T.Other]</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-18.79278132956919</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-0.6309544510706528</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.025743747212377</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.9989053912584611</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.1594740266828506</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.007447340913229077</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Occupation[T.Employed_PartTime]</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.1684414658512208</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.1941047058459384</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.2745059163070213</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.4437847525622326</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.09198255864043049</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.01328416963600083</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Occupation[T.Home_Partner]</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.9743088948577266</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8479814538310027</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.825312878231222</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.004538501107707199</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.813156923601914e-08</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.055822335667017e-06</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Occupation[T.Other]</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-15.25713602170833</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.05284270272739161</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.3004887381732674</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9963753900446329</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.9336585582545563</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.5913819148905528</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Occupation[T.Retired]</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.230290185925864</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.5990790365951857</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8017486460174079</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.350069500045861</v>
+      </c>
+      <c r="F16" t="n">
+        <v>6.635827159527284e-07</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.13906504790067e-12</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Occupation[T.Student_3rdLevel]</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1.850071548890804</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3110981272362347</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.147506485771046</v>
+      </c>
+      <c r="E17" t="n">
+        <v>8.899003093799122e-09</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.1610537597578001</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1.345542628401548e-11</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Occupation[T.Student_School]</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1.091356562852335</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.6511314048836635</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.545782962029077</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.007955331605021551</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.0007360057694295071</v>
+      </c>
+      <c r="G18" t="n">
+        <v>8.515329551172874e-18</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Occupation[T.Trainee]</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1.42870247561194</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.5187351337190841</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.021188506561935</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.07843761385199868</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.3154082567136961</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.002659165636419713</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Occupation[T.Unemployed]</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.4482761590179477</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.5679051334010775</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.6640124141878518</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.1211139879265484</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1.992920000903677e-05</v>
+      </c>
+      <c r="G20" t="n">
+        <v>6.804767455252331e-07</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Education[T.Elementary]</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>37.45101479216589</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.733173561105996</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.8518436815964168</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.9999972297890984</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.01015343749087743</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.1632326770840723</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Education[T.No diploma yet]</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>35.95878737115224</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.04366743816654794</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-1.551135105068934</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.9999973401675406</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.9488425367101562</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.0124624917957226</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Education[T.Secondary]</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>37.24355280323995</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.330532677452945</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.7606294507866135</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.9999972451348366</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.04494923552603568</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.205391937857899</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Education[T.University]</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>37.93008058176333</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.244299745571693</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.7774477604767015</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.9999971943531222</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.06042475366334132</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.1950917991976486</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Education[T.Unknown]</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>38.19019271729231</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.825447247575547</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2.216894606427052</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.9999971751129099</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.01613358290711933</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.001333324667512598</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Sex</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>-0.2176740647758405</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.2215675985186729</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.5308117111425211</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.05532741599590781</v>
+      </c>
+      <c r="F26" t="n">
+        <v>9.212894867088985e-05</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2.609621020858811e-25</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.001830949664462498</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.005625642696316484</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-0.007472365738724892</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.7447005684654682</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.0769528272589787</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.003398251151675103</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Trip_Distance</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>-0.0004646518652782233</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.002956921701202622</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.0001316511332326469</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2.779719514063645e-36</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2.924856804142202e-110</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>CarAvailable</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-2.32922545752276</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-2.526231903250756</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-2.879502596748213</v>
+      </c>
+      <c r="E29" t="n">
+        <v>4.378737792990705e-61</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1.191349040089275e-153</v>
+      </c>
+      <c r="G29" t="n">
+        <v>8.813711648436613e-252</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>HHSize</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.1637197573613316</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.09588691998153145</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.06705731128950403</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.0001547428596911319</v>
+      </c>
+      <c r="F30" t="n">
+        <v>3.289090415123933e-05</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.0005694491172260166</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>UrbPopDensity_origin</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>6.673050275987899e-06</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.706618265274226e-05</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1.108339061577011e-05</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.2833779545093434</v>
+      </c>
+      <c r="F31" t="n">
+        <v>4.825829215445889e-05</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.002043775223892322</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>DistSubcenter_origin</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.06596297905635159</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-0.01466466736775064</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.01214483743890431</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.06296024315885859</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.3224611292389508</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.389826308156854</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>DistCenter_origin</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-0.04397621840850259</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-0.06934789229461062</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-0.09008730116516606</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.1114786232199232</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1.256553218393143e-08</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2.208918003084429e-14</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>UrbBuildDensity_origin</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>4.704470645893109e-08</v>
+      </c>
+      <c r="C34" t="n">
+        <v>4.514262565594002e-08</v>
+      </c>
+      <c r="D34" t="n">
+        <v>3.244120581188982e-08</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.004523504945488255</v>
+      </c>
+      <c r="F34" t="n">
+        <v>6.529905447253274e-06</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.0001833097096550873</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>IntersecDensity_origin</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.01484368241185431</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.008622515910165508</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.006110079816033334</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.03121711230105085</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.002697503095730996</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.02382186678335281</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>street_length_origin</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.02106154775739099</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.00619140101141573</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-0.001318566723633247</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.03118586129125153</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.08402027345584444</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.7044042973200491</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>bike_lane_share_origin</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>2.884586371866074</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-0.186708084387058</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.1691301882793255</v>
+      </c>
+      <c r="E37" t="n">
+        <v>2.670343231498543e-06</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.5901078838522442</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.579345102955924</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
           <t>LU_UrbFab_origin</t>
         </is>
       </c>
+      <c r="B38" t="n">
+        <v>-0.1679085260720971</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-0.2005987067473022</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-0.6251515081225248</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.7739942801040771</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.4908288004911571</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.01680899118292439</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>LU_Comm_origin</t>
+        </is>
+      </c>
       <c r="B39" t="n">
-        <v>-0.1668450050196826</v>
+        <v>0.2764614424909773</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.2076761889911017</v>
+        <v>-1.280490655040346</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.6363243805579722</v>
+        <v>-0.4121288341702449</v>
       </c>
       <c r="E39" t="n">
-        <v>0.7753663977334648</v>
+        <v>0.7244110388895131</v>
       </c>
       <c r="F39" t="n">
-        <v>0.4757816985199012</v>
+        <v>0.0001922211559941833</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0150037888422133</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>LU_Comm_origin</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>0.2656413771588886</v>
-      </c>
-      <c r="C40" t="n">
-        <v>-1.301149018305977</v>
-      </c>
-      <c r="D40" t="n">
-        <v>-0.4432508904613792</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.7349177079967384</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0.0001544454688760977</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.1704534501984192</v>
+        <v>0.2018860621927201</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/mode_MNLR/Paris.xlsx
+++ b/outputs/ML_Results/mode_MNLR/Paris.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ15" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ6" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ4" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ5" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ11" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ9" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ24980915" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ30158412" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ35980124" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ41710845" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ46912963" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ52665432" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ58487474" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ04192391" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ09901147" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1157,7 +1157,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CarAvailable</t>
+          <t>CarOwnershipHH</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -2163,7 +2163,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CarAvailable</t>
+          <t>CarOwnershipHH</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -3169,7 +3169,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CarAvailable</t>
+          <t>CarOwnershipHH</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -3851,7 +3851,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CarAvailable</t>
+          <t>CarOwnershipHH</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -4725,7 +4725,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CarAvailable</t>
+          <t>CarOwnershipHH</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -5407,7 +5407,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CarAvailable</t>
+          <t>CarOwnershipHH</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -6281,7 +6281,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CarAvailable</t>
+          <t>CarOwnershipHH</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -7287,7 +7287,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CarAvailable</t>
+          <t>CarOwnershipHH</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -8293,7 +8293,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CarAvailable</t>
+          <t>CarOwnershipHH</t>
         </is>
       </c>
       <c r="B29" t="n">
